--- a/ITER3/ARTEFACTOS/TABLAS ARTEFACTO 7.xlsx
+++ b/ITER3/ARTEFACTOS/TABLAS ARTEFACTO 7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\UNIVERSIDAD\TERCER CURSO\INGENIERIA DEL SOFTWARE AVANZADA\LABORATORIO\SW\ITER2\ARTEFACTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\UNIVERSIDAD\TERCER CURSO\INGENIERIA DEL SOFTWARE AVANZADA\LABORATORIO\SW\ITER3\ARTEFACTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{0D0A7CF3-11FF-4CA3-A092-178B21BA7121}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{7B965C93-51DD-4D11-A54A-AF18403BF795}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF52233-40A3-4BEF-97CF-1FBA1BB3FA37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="2" xr2:uid="{D68F269D-CCB5-4930-8DCD-09FEBB86FD79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1" xr2:uid="{D68F269D-CCB5-4930-8DCD-09FEBB86FD79}"/>
   </bookViews>
   <sheets>
     <sheet name="ARTEFACTO7.1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="234">
   <si>
     <t>RF1</t>
   </si>
@@ -717,6 +717,24 @@
   </si>
   <si>
     <t>Fachada.guardarPieza()</t>
+  </si>
+  <si>
+    <t>RF37</t>
+  </si>
+  <si>
+    <t>RF38</t>
+  </si>
+  <si>
+    <t>RF39</t>
+  </si>
+  <si>
+    <t>RNF38</t>
+  </si>
+  <si>
+    <t>RNF39</t>
+  </si>
+  <si>
+    <t>RNF40</t>
   </si>
 </sst>
 </file>
@@ -748,7 +766,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1004,15 +1022,6 @@
         <color auto="1"/>
       </diagonal>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thick">
         <color auto="1"/>
@@ -1047,11 +1056,37 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1137,13 +1172,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1156,6 +1188,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2648,10 +2686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F115FB-91EA-4D3D-AC52-FEB512D0E00D}">
-  <dimension ref="A1:BV105"/>
+  <dimension ref="A1:CB108"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BV18" sqref="BV18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2660,7 +2698,7 @@
     <col min="2" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2771,123 +2809,141 @@
         <v>35</v>
       </c>
       <c r="AL1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AO1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BZ1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2954,13 +3010,19 @@
       <c r="BO2" s="7"/>
       <c r="BP2" s="7"/>
       <c r="BQ2" s="7"/>
-      <c r="BR2" s="31"/>
+      <c r="BR2" s="7"/>
       <c r="BS2" s="7"/>
       <c r="BT2" s="7"/>
-      <c r="BU2" s="7"/>
-      <c r="BV2" s="8"/>
-    </row>
-    <row r="3" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BU2" s="30"/>
+      <c r="BV2" s="7"/>
+      <c r="BW2" s="7"/>
+      <c r="BX2" s="7"/>
+      <c r="BY2" s="7"/>
+      <c r="BZ2" s="7"/>
+      <c r="CA2" s="7"/>
+      <c r="CB2" s="8"/>
+    </row>
+    <row r="3" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3032,13 +3094,19 @@
       <c r="BO3" s="10"/>
       <c r="BP3" s="10"/>
       <c r="BQ3" s="10"/>
-      <c r="BR3" s="24"/>
+      <c r="BR3" s="10"/>
       <c r="BS3" s="10"/>
       <c r="BT3" s="10"/>
-      <c r="BU3" s="10"/>
-      <c r="BV3" s="11"/>
-    </row>
-    <row r="4" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BU3" s="24"/>
+      <c r="BV3" s="10"/>
+      <c r="BW3" s="10"/>
+      <c r="BX3" s="10"/>
+      <c r="BY3" s="10"/>
+      <c r="BZ3" s="10"/>
+      <c r="CA3" s="10"/>
+      <c r="CB3" s="11"/>
+    </row>
+    <row r="4" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3110,13 +3178,19 @@
       <c r="BO4" s="10"/>
       <c r="BP4" s="10"/>
       <c r="BQ4" s="10"/>
-      <c r="BR4" s="24"/>
+      <c r="BR4" s="10"/>
       <c r="BS4" s="10"/>
       <c r="BT4" s="10"/>
-      <c r="BU4" s="10"/>
-      <c r="BV4" s="11"/>
-    </row>
-    <row r="5" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BU4" s="24"/>
+      <c r="BV4" s="10"/>
+      <c r="BW4" s="10"/>
+      <c r="BX4" s="10"/>
+      <c r="BY4" s="10"/>
+      <c r="BZ4" s="10"/>
+      <c r="CA4" s="10"/>
+      <c r="CB4" s="11"/>
+    </row>
+    <row r="5" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3192,9 +3266,15 @@
       <c r="BS5" s="10"/>
       <c r="BT5" s="10"/>
       <c r="BU5" s="10"/>
-      <c r="BV5" s="28"/>
-    </row>
-    <row r="6" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV5" s="10"/>
+      <c r="BW5" s="10"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="24"/>
+      <c r="BZ5" s="10"/>
+      <c r="CA5" s="10"/>
+      <c r="CB5" s="11"/>
+    </row>
+    <row r="6" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3270,9 +3350,15 @@
       <c r="BS6" s="10"/>
       <c r="BT6" s="10"/>
       <c r="BU6" s="10"/>
-      <c r="BV6" s="28"/>
-    </row>
-    <row r="7" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV6" s="10"/>
+      <c r="BW6" s="10"/>
+      <c r="BX6" s="10"/>
+      <c r="BY6" s="24"/>
+      <c r="BZ6" s="10"/>
+      <c r="CA6" s="10"/>
+      <c r="CB6" s="11"/>
+    </row>
+    <row r="7" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3348,9 +3434,15 @@
       <c r="BS7" s="10"/>
       <c r="BT7" s="10"/>
       <c r="BU7" s="10"/>
-      <c r="BV7" s="11"/>
-    </row>
-    <row r="8" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV7" s="10"/>
+      <c r="BW7" s="10"/>
+      <c r="BX7" s="10"/>
+      <c r="BY7" s="10"/>
+      <c r="BZ7" s="10"/>
+      <c r="CA7" s="10"/>
+      <c r="CB7" s="11"/>
+    </row>
+    <row r="8" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3426,9 +3518,15 @@
       <c r="BS8" s="10"/>
       <c r="BT8" s="10"/>
       <c r="BU8" s="10"/>
-      <c r="BV8" s="11"/>
-    </row>
-    <row r="9" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV8" s="10"/>
+      <c r="BW8" s="10"/>
+      <c r="BX8" s="10"/>
+      <c r="BY8" s="10"/>
+      <c r="BZ8" s="10"/>
+      <c r="CA8" s="10"/>
+      <c r="CB8" s="11"/>
+    </row>
+    <row r="9" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3504,9 +3602,15 @@
       <c r="BS9" s="10"/>
       <c r="BT9" s="10"/>
       <c r="BU9" s="10"/>
-      <c r="BV9" s="11"/>
-    </row>
-    <row r="10" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV9" s="10"/>
+      <c r="BW9" s="10"/>
+      <c r="BX9" s="10"/>
+      <c r="BY9" s="10"/>
+      <c r="BZ9" s="10"/>
+      <c r="CA9" s="10"/>
+      <c r="CB9" s="11"/>
+    </row>
+    <row r="10" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3582,9 +3686,15 @@
       <c r="BS10" s="10"/>
       <c r="BT10" s="10"/>
       <c r="BU10" s="10"/>
-      <c r="BV10" s="11"/>
-    </row>
-    <row r="11" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV10" s="10"/>
+      <c r="BW10" s="10"/>
+      <c r="BX10" s="10"/>
+      <c r="BY10" s="10"/>
+      <c r="BZ10" s="10"/>
+      <c r="CA10" s="10"/>
+      <c r="CB10" s="11"/>
+    </row>
+    <row r="11" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3660,9 +3770,15 @@
       <c r="BS11" s="10"/>
       <c r="BT11" s="10"/>
       <c r="BU11" s="10"/>
-      <c r="BV11" s="11"/>
-    </row>
-    <row r="12" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV11" s="10"/>
+      <c r="BW11" s="10"/>
+      <c r="BX11" s="10"/>
+      <c r="BY11" s="10"/>
+      <c r="BZ11" s="10"/>
+      <c r="CA11" s="10"/>
+      <c r="CB11" s="11"/>
+    </row>
+    <row r="12" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3738,9 +3854,15 @@
       <c r="BS12" s="10"/>
       <c r="BT12" s="10"/>
       <c r="BU12" s="10"/>
-      <c r="BV12" s="11"/>
-    </row>
-    <row r="13" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV12" s="10"/>
+      <c r="BW12" s="10"/>
+      <c r="BX12" s="10"/>
+      <c r="BY12" s="10"/>
+      <c r="BZ12" s="10"/>
+      <c r="CA12" s="10"/>
+      <c r="CB12" s="11"/>
+    </row>
+    <row r="13" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3816,9 +3938,15 @@
       <c r="BS13" s="10"/>
       <c r="BT13" s="10"/>
       <c r="BU13" s="10"/>
-      <c r="BV13" s="11"/>
-    </row>
-    <row r="14" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV13" s="10"/>
+      <c r="BW13" s="10"/>
+      <c r="BX13" s="10"/>
+      <c r="BY13" s="10"/>
+      <c r="BZ13" s="10"/>
+      <c r="CA13" s="10"/>
+      <c r="CB13" s="11"/>
+    </row>
+    <row r="14" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3894,9 +4022,15 @@
       <c r="BS14" s="10"/>
       <c r="BT14" s="10"/>
       <c r="BU14" s="10"/>
-      <c r="BV14" s="11"/>
-    </row>
-    <row r="15" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV14" s="10"/>
+      <c r="BW14" s="10"/>
+      <c r="BX14" s="10"/>
+      <c r="BY14" s="10"/>
+      <c r="BZ14" s="10"/>
+      <c r="CA14" s="10"/>
+      <c r="CB14" s="11"/>
+    </row>
+    <row r="15" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3972,9 +4106,15 @@
       <c r="BS15" s="10"/>
       <c r="BT15" s="10"/>
       <c r="BU15" s="10"/>
-      <c r="BV15" s="11"/>
-    </row>
-    <row r="16" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV15" s="10"/>
+      <c r="BW15" s="10"/>
+      <c r="BX15" s="10"/>
+      <c r="BY15" s="10"/>
+      <c r="BZ15" s="10"/>
+      <c r="CA15" s="10"/>
+      <c r="CB15" s="11"/>
+    </row>
+    <row r="16" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -4050,9 +4190,15 @@
       <c r="BS16" s="10"/>
       <c r="BT16" s="10"/>
       <c r="BU16" s="10"/>
-      <c r="BV16" s="11"/>
-    </row>
-    <row r="17" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV16" s="10"/>
+      <c r="BW16" s="10"/>
+      <c r="BX16" s="10"/>
+      <c r="BY16" s="10"/>
+      <c r="BZ16" s="10"/>
+      <c r="CA16" s="10"/>
+      <c r="CB16" s="11"/>
+    </row>
+    <row r="17" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -4128,9 +4274,15 @@
       <c r="BS17" s="10"/>
       <c r="BT17" s="10"/>
       <c r="BU17" s="10"/>
-      <c r="BV17" s="11"/>
-    </row>
-    <row r="18" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV17" s="10"/>
+      <c r="BW17" s="10"/>
+      <c r="BX17" s="10"/>
+      <c r="BY17" s="10"/>
+      <c r="BZ17" s="10"/>
+      <c r="CA17" s="10"/>
+      <c r="CB17" s="11"/>
+    </row>
+    <row r="18" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -4206,9 +4358,15 @@
       <c r="BS18" s="10"/>
       <c r="BT18" s="10"/>
       <c r="BU18" s="10"/>
-      <c r="BV18" s="11"/>
-    </row>
-    <row r="19" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV18" s="10"/>
+      <c r="BW18" s="10"/>
+      <c r="BX18" s="10"/>
+      <c r="BY18" s="10"/>
+      <c r="BZ18" s="10"/>
+      <c r="CA18" s="10"/>
+      <c r="CB18" s="11"/>
+    </row>
+    <row r="19" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -4248,9 +4406,9 @@
       <c r="AI19" s="10"/>
       <c r="AJ19" s="24"/>
       <c r="AK19" s="24"/>
-      <c r="AL19" s="10"/>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="10"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
       <c r="AO19" s="10"/>
       <c r="AP19" s="10"/>
       <c r="AQ19" s="10"/>
@@ -4284,9 +4442,15 @@
       <c r="BS19" s="10"/>
       <c r="BT19" s="10"/>
       <c r="BU19" s="10"/>
-      <c r="BV19" s="11"/>
-    </row>
-    <row r="20" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV19" s="10"/>
+      <c r="BW19" s="10"/>
+      <c r="BX19" s="10"/>
+      <c r="BY19" s="10"/>
+      <c r="BZ19" s="10"/>
+      <c r="CA19" s="10"/>
+      <c r="CB19" s="11"/>
+    </row>
+    <row r="20" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -4362,9 +4526,15 @@
       <c r="BS20" s="10"/>
       <c r="BT20" s="10"/>
       <c r="BU20" s="10"/>
-      <c r="BV20" s="11"/>
-    </row>
-    <row r="21" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV20" s="10"/>
+      <c r="BW20" s="10"/>
+      <c r="BX20" s="10"/>
+      <c r="BY20" s="10"/>
+      <c r="BZ20" s="10"/>
+      <c r="CA20" s="10"/>
+      <c r="CB20" s="11"/>
+    </row>
+    <row r="21" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -4440,9 +4610,15 @@
       <c r="BS21" s="10"/>
       <c r="BT21" s="10"/>
       <c r="BU21" s="10"/>
-      <c r="BV21" s="11"/>
-    </row>
-    <row r="22" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV21" s="10"/>
+      <c r="BW21" s="10"/>
+      <c r="BX21" s="10"/>
+      <c r="BY21" s="10"/>
+      <c r="BZ21" s="10"/>
+      <c r="CA21" s="10"/>
+      <c r="CB21" s="11"/>
+    </row>
+    <row r="22" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4518,9 +4694,15 @@
       <c r="BS22" s="10"/>
       <c r="BT22" s="10"/>
       <c r="BU22" s="10"/>
-      <c r="BV22" s="11"/>
-    </row>
-    <row r="23" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV22" s="10"/>
+      <c r="BW22" s="10"/>
+      <c r="BX22" s="10"/>
+      <c r="BY22" s="10"/>
+      <c r="BZ22" s="10"/>
+      <c r="CA22" s="10"/>
+      <c r="CB22" s="11"/>
+    </row>
+    <row r="23" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4596,9 +4778,15 @@
       <c r="BS23" s="10"/>
       <c r="BT23" s="10"/>
       <c r="BU23" s="10"/>
-      <c r="BV23" s="11"/>
-    </row>
-    <row r="24" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV23" s="10"/>
+      <c r="BW23" s="10"/>
+      <c r="BX23" s="10"/>
+      <c r="BY23" s="10"/>
+      <c r="BZ23" s="10"/>
+      <c r="CA23" s="10"/>
+      <c r="CB23" s="11"/>
+    </row>
+    <row r="24" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4674,9 +4862,15 @@
       <c r="BS24" s="10"/>
       <c r="BT24" s="10"/>
       <c r="BU24" s="10"/>
-      <c r="BV24" s="11"/>
-    </row>
-    <row r="25" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV24" s="10"/>
+      <c r="BW24" s="10"/>
+      <c r="BX24" s="10"/>
+      <c r="BY24" s="10"/>
+      <c r="BZ24" s="10"/>
+      <c r="CA24" s="10"/>
+      <c r="CB24" s="11"/>
+    </row>
+    <row r="25" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4752,9 +4946,15 @@
       <c r="BS25" s="10"/>
       <c r="BT25" s="10"/>
       <c r="BU25" s="10"/>
-      <c r="BV25" s="11"/>
-    </row>
-    <row r="26" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV25" s="10"/>
+      <c r="BW25" s="10"/>
+      <c r="BX25" s="10"/>
+      <c r="BY25" s="10"/>
+      <c r="BZ25" s="10"/>
+      <c r="CA25" s="10"/>
+      <c r="CB25" s="11"/>
+    </row>
+    <row r="26" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4830,9 +5030,15 @@
       <c r="BS26" s="10"/>
       <c r="BT26" s="10"/>
       <c r="BU26" s="10"/>
-      <c r="BV26" s="11"/>
-    </row>
-    <row r="27" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV26" s="10"/>
+      <c r="BW26" s="10"/>
+      <c r="BX26" s="10"/>
+      <c r="BY26" s="10"/>
+      <c r="BZ26" s="10"/>
+      <c r="CA26" s="10"/>
+      <c r="CB26" s="11"/>
+    </row>
+    <row r="27" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4908,9 +5114,15 @@
       <c r="BS27" s="10"/>
       <c r="BT27" s="10"/>
       <c r="BU27" s="10"/>
-      <c r="BV27" s="11"/>
-    </row>
-    <row r="28" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV27" s="10"/>
+      <c r="BW27" s="10"/>
+      <c r="BX27" s="10"/>
+      <c r="BY27" s="10"/>
+      <c r="BZ27" s="10"/>
+      <c r="CA27" s="10"/>
+      <c r="CB27" s="11"/>
+    </row>
+    <row r="28" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4986,9 +5198,15 @@
       <c r="BS28" s="10"/>
       <c r="BT28" s="10"/>
       <c r="BU28" s="10"/>
-      <c r="BV28" s="11"/>
-    </row>
-    <row r="29" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV28" s="10"/>
+      <c r="BW28" s="10"/>
+      <c r="BX28" s="10"/>
+      <c r="BY28" s="10"/>
+      <c r="BZ28" s="10"/>
+      <c r="CA28" s="10"/>
+      <c r="CB28" s="11"/>
+    </row>
+    <row r="29" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -5064,9 +5282,15 @@
       <c r="BS29" s="10"/>
       <c r="BT29" s="10"/>
       <c r="BU29" s="10"/>
-      <c r="BV29" s="11"/>
-    </row>
-    <row r="30" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV29" s="10"/>
+      <c r="BW29" s="10"/>
+      <c r="BX29" s="10"/>
+      <c r="BY29" s="10"/>
+      <c r="BZ29" s="10"/>
+      <c r="CA29" s="10"/>
+      <c r="CB29" s="11"/>
+    </row>
+    <row r="30" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -5142,9 +5366,15 @@
       <c r="BS30" s="10"/>
       <c r="BT30" s="10"/>
       <c r="BU30" s="10"/>
-      <c r="BV30" s="11"/>
-    </row>
-    <row r="31" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV30" s="10"/>
+      <c r="BW30" s="10"/>
+      <c r="BX30" s="10"/>
+      <c r="BY30" s="10"/>
+      <c r="BZ30" s="10"/>
+      <c r="CA30" s="10"/>
+      <c r="CB30" s="11"/>
+    </row>
+    <row r="31" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -5220,9 +5450,15 @@
       <c r="BS31" s="10"/>
       <c r="BT31" s="10"/>
       <c r="BU31" s="10"/>
-      <c r="BV31" s="11"/>
-    </row>
-    <row r="32" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV31" s="10"/>
+      <c r="BW31" s="10"/>
+      <c r="BX31" s="10"/>
+      <c r="BY31" s="10"/>
+      <c r="BZ31" s="10"/>
+      <c r="CA31" s="10"/>
+      <c r="CB31" s="11"/>
+    </row>
+    <row r="32" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -5298,9 +5534,15 @@
       <c r="BS32" s="10"/>
       <c r="BT32" s="10"/>
       <c r="BU32" s="10"/>
-      <c r="BV32" s="11"/>
-    </row>
-    <row r="33" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV32" s="10"/>
+      <c r="BW32" s="10"/>
+      <c r="BX32" s="10"/>
+      <c r="BY32" s="10"/>
+      <c r="BZ32" s="10"/>
+      <c r="CA32" s="10"/>
+      <c r="CB32" s="11"/>
+    </row>
+    <row r="33" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -5376,9 +5618,15 @@
       <c r="BS33" s="10"/>
       <c r="BT33" s="10"/>
       <c r="BU33" s="10"/>
-      <c r="BV33" s="11"/>
-    </row>
-    <row r="34" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV33" s="10"/>
+      <c r="BW33" s="10"/>
+      <c r="BX33" s="10"/>
+      <c r="BY33" s="10"/>
+      <c r="BZ33" s="10"/>
+      <c r="CA33" s="10"/>
+      <c r="CB33" s="11"/>
+    </row>
+    <row r="34" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -5454,9 +5702,15 @@
       <c r="BS34" s="10"/>
       <c r="BT34" s="10"/>
       <c r="BU34" s="10"/>
-      <c r="BV34" s="11"/>
-    </row>
-    <row r="35" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV34" s="10"/>
+      <c r="BW34" s="10"/>
+      <c r="BX34" s="10"/>
+      <c r="BY34" s="10"/>
+      <c r="BZ34" s="10"/>
+      <c r="CA34" s="10"/>
+      <c r="CB34" s="11"/>
+    </row>
+    <row r="35" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -5532,9 +5786,15 @@
       <c r="BS35" s="10"/>
       <c r="BT35" s="10"/>
       <c r="BU35" s="10"/>
-      <c r="BV35" s="11"/>
-    </row>
-    <row r="36" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV35" s="10"/>
+      <c r="BW35" s="10"/>
+      <c r="BX35" s="10"/>
+      <c r="BY35" s="10"/>
+      <c r="BZ35" s="10"/>
+      <c r="CA35" s="10"/>
+      <c r="CB35" s="11"/>
+    </row>
+    <row r="36" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -5610,9 +5870,15 @@
       <c r="BS36" s="10"/>
       <c r="BT36" s="10"/>
       <c r="BU36" s="10"/>
-      <c r="BV36" s="11"/>
-    </row>
-    <row r="37" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV36" s="10"/>
+      <c r="BW36" s="10"/>
+      <c r="BX36" s="10"/>
+      <c r="BY36" s="10"/>
+      <c r="BZ36" s="10"/>
+      <c r="CA36" s="10"/>
+      <c r="CB36" s="11"/>
+    </row>
+    <row r="37" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5688,9 +5954,15 @@
       <c r="BS37" s="10"/>
       <c r="BT37" s="10"/>
       <c r="BU37" s="10"/>
-      <c r="BV37" s="11"/>
-    </row>
-    <row r="38" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV37" s="10"/>
+      <c r="BW37" s="10"/>
+      <c r="BX37" s="10"/>
+      <c r="BY37" s="10"/>
+      <c r="BZ37" s="10"/>
+      <c r="CA37" s="10"/>
+      <c r="CB37" s="11"/>
+    </row>
+    <row r="38" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5766,9 +6038,15 @@
       <c r="BS38" s="10"/>
       <c r="BT38" s="10"/>
       <c r="BU38" s="10"/>
-      <c r="BV38" s="11"/>
-    </row>
-    <row r="39" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV38" s="10"/>
+      <c r="BW38" s="10"/>
+      <c r="BX38" s="10"/>
+      <c r="BY38" s="10"/>
+      <c r="BZ38" s="10"/>
+      <c r="CA38" s="10"/>
+      <c r="CB38" s="11"/>
+    </row>
+    <row r="39" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5844,9 +6122,15 @@
       <c r="BS39" s="10"/>
       <c r="BT39" s="10"/>
       <c r="BU39" s="10"/>
-      <c r="BV39" s="11"/>
-    </row>
-    <row r="40" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV39" s="10"/>
+      <c r="BW39" s="10"/>
+      <c r="BX39" s="10"/>
+      <c r="BY39" s="10"/>
+      <c r="BZ39" s="10"/>
+      <c r="CA39" s="10"/>
+      <c r="CB39" s="11"/>
+    </row>
+    <row r="40" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -5922,9 +6206,15 @@
       <c r="BS40" s="10"/>
       <c r="BT40" s="10"/>
       <c r="BU40" s="10"/>
-      <c r="BV40" s="11"/>
-    </row>
-    <row r="41" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV40" s="10"/>
+      <c r="BW40" s="10"/>
+      <c r="BX40" s="10"/>
+      <c r="BY40" s="10"/>
+      <c r="BZ40" s="10"/>
+      <c r="CA40" s="10"/>
+      <c r="CB40" s="11"/>
+    </row>
+    <row r="41" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -6000,9 +6290,15 @@
       <c r="BS41" s="10"/>
       <c r="BT41" s="10"/>
       <c r="BU41" s="10"/>
-      <c r="BV41" s="11"/>
-    </row>
-    <row r="42" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV41" s="10"/>
+      <c r="BW41" s="10"/>
+      <c r="BX41" s="10"/>
+      <c r="BY41" s="10"/>
+      <c r="BZ41" s="10"/>
+      <c r="CA41" s="10"/>
+      <c r="CB41" s="11"/>
+    </row>
+    <row r="42" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -6012,7 +6308,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="32"/>
+      <c r="H42" s="31"/>
       <c r="I42" s="10"/>
       <c r="J42" s="24"/>
       <c r="K42" s="10"/>
@@ -6078,9 +6374,15 @@
       <c r="BS42" s="10"/>
       <c r="BT42" s="10"/>
       <c r="BU42" s="10"/>
-      <c r="BV42" s="11"/>
-    </row>
-    <row r="43" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV42" s="10"/>
+      <c r="BW42" s="10"/>
+      <c r="BX42" s="10"/>
+      <c r="BY42" s="10"/>
+      <c r="BZ42" s="10"/>
+      <c r="CA42" s="10"/>
+      <c r="CB42" s="11"/>
+    </row>
+    <row r="43" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -6156,9 +6458,15 @@
       <c r="BS43" s="10"/>
       <c r="BT43" s="10"/>
       <c r="BU43" s="10"/>
-      <c r="BV43" s="11"/>
-    </row>
-    <row r="44" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV43" s="10"/>
+      <c r="BW43" s="10"/>
+      <c r="BX43" s="10"/>
+      <c r="BY43" s="10"/>
+      <c r="BZ43" s="10"/>
+      <c r="CA43" s="10"/>
+      <c r="CB43" s="11"/>
+    </row>
+    <row r="44" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -6234,9 +6542,15 @@
       <c r="BS44" s="10"/>
       <c r="BT44" s="10"/>
       <c r="BU44" s="10"/>
-      <c r="BV44" s="11"/>
-    </row>
-    <row r="45" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV44" s="10"/>
+      <c r="BW44" s="10"/>
+      <c r="BX44" s="10"/>
+      <c r="BY44" s="10"/>
+      <c r="BZ44" s="10"/>
+      <c r="CA44" s="10"/>
+      <c r="CB44" s="11"/>
+    </row>
+    <row r="45" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -6312,9 +6626,15 @@
       <c r="BS45" s="10"/>
       <c r="BT45" s="10"/>
       <c r="BU45" s="10"/>
-      <c r="BV45" s="11"/>
-    </row>
-    <row r="46" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV45" s="10"/>
+      <c r="BW45" s="10"/>
+      <c r="BX45" s="10"/>
+      <c r="BY45" s="10"/>
+      <c r="BZ45" s="10"/>
+      <c r="CA45" s="10"/>
+      <c r="CB45" s="11"/>
+    </row>
+    <row r="46" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -6390,9 +6710,15 @@
       <c r="BS46" s="10"/>
       <c r="BT46" s="10"/>
       <c r="BU46" s="10"/>
-      <c r="BV46" s="11"/>
-    </row>
-    <row r="47" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV46" s="10"/>
+      <c r="BW46" s="10"/>
+      <c r="BX46" s="10"/>
+      <c r="BY46" s="10"/>
+      <c r="BZ46" s="10"/>
+      <c r="CA46" s="10"/>
+      <c r="CB46" s="11"/>
+    </row>
+    <row r="47" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -6423,11 +6749,11 @@
       <c r="Z47" s="10"/>
       <c r="AA47" s="10"/>
       <c r="AB47" s="24"/>
-      <c r="AC47" s="32"/>
+      <c r="AC47" s="31"/>
       <c r="AD47" s="10"/>
       <c r="AE47" s="10"/>
       <c r="AF47" s="24"/>
-      <c r="AG47" s="32"/>
+      <c r="AG47" s="31"/>
       <c r="AH47" s="10"/>
       <c r="AI47" s="10"/>
       <c r="AJ47" s="10"/>
@@ -6468,9 +6794,15 @@
       <c r="BS47" s="10"/>
       <c r="BT47" s="10"/>
       <c r="BU47" s="10"/>
-      <c r="BV47" s="11"/>
-    </row>
-    <row r="48" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV47" s="10"/>
+      <c r="BW47" s="10"/>
+      <c r="BX47" s="10"/>
+      <c r="BY47" s="10"/>
+      <c r="BZ47" s="10"/>
+      <c r="CA47" s="10"/>
+      <c r="CB47" s="11"/>
+    </row>
+    <row r="48" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -6546,9 +6878,15 @@
       <c r="BS48" s="10"/>
       <c r="BT48" s="10"/>
       <c r="BU48" s="10"/>
-      <c r="BV48" s="11"/>
-    </row>
-    <row r="49" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV48" s="10"/>
+      <c r="BW48" s="10"/>
+      <c r="BX48" s="10"/>
+      <c r="BY48" s="10"/>
+      <c r="BZ48" s="10"/>
+      <c r="CA48" s="10"/>
+      <c r="CB48" s="11"/>
+    </row>
+    <row r="49" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -6624,9 +6962,15 @@
       <c r="BS49" s="10"/>
       <c r="BT49" s="10"/>
       <c r="BU49" s="10"/>
-      <c r="BV49" s="11"/>
-    </row>
-    <row r="50" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV49" s="10"/>
+      <c r="BW49" s="10"/>
+      <c r="BX49" s="10"/>
+      <c r="BY49" s="10"/>
+      <c r="BZ49" s="10"/>
+      <c r="CA49" s="10"/>
+      <c r="CB49" s="11"/>
+    </row>
+    <row r="50" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -6657,11 +7001,11 @@
       <c r="Z50" s="10"/>
       <c r="AA50" s="10"/>
       <c r="AB50" s="24"/>
-      <c r="AC50" s="32"/>
+      <c r="AC50" s="31"/>
       <c r="AD50" s="10"/>
       <c r="AE50" s="10"/>
       <c r="AF50" s="24"/>
-      <c r="AG50" s="32"/>
+      <c r="AG50" s="31"/>
       <c r="AH50" s="10"/>
       <c r="AI50" s="10"/>
       <c r="AJ50" s="10"/>
@@ -6702,9 +7046,15 @@
       <c r="BS50" s="10"/>
       <c r="BT50" s="10"/>
       <c r="BU50" s="10"/>
-      <c r="BV50" s="11"/>
-    </row>
-    <row r="51" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV50" s="10"/>
+      <c r="BW50" s="10"/>
+      <c r="BX50" s="10"/>
+      <c r="BY50" s="10"/>
+      <c r="BZ50" s="10"/>
+      <c r="CA50" s="10"/>
+      <c r="CB50" s="11"/>
+    </row>
+    <row r="51" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -6780,9 +7130,15 @@
       <c r="BS51" s="10"/>
       <c r="BT51" s="10"/>
       <c r="BU51" s="10"/>
-      <c r="BV51" s="11"/>
-    </row>
-    <row r="52" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV51" s="10"/>
+      <c r="BW51" s="10"/>
+      <c r="BX51" s="10"/>
+      <c r="BY51" s="10"/>
+      <c r="BZ51" s="10"/>
+      <c r="CA51" s="10"/>
+      <c r="CB51" s="11"/>
+    </row>
+    <row r="52" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -6858,9 +7214,15 @@
       <c r="BS52" s="10"/>
       <c r="BT52" s="10"/>
       <c r="BU52" s="10"/>
-      <c r="BV52" s="11"/>
-    </row>
-    <row r="53" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV52" s="10"/>
+      <c r="BW52" s="10"/>
+      <c r="BX52" s="10"/>
+      <c r="BY52" s="10"/>
+      <c r="BZ52" s="10"/>
+      <c r="CA52" s="10"/>
+      <c r="CB52" s="11"/>
+    </row>
+    <row r="53" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -6936,9 +7298,15 @@
       <c r="BS53" s="10"/>
       <c r="BT53" s="10"/>
       <c r="BU53" s="10"/>
-      <c r="BV53" s="11"/>
-    </row>
-    <row r="54" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV53" s="10"/>
+      <c r="BW53" s="10"/>
+      <c r="BX53" s="10"/>
+      <c r="BY53" s="10"/>
+      <c r="BZ53" s="10"/>
+      <c r="CA53" s="10"/>
+      <c r="CB53" s="11"/>
+    </row>
+    <row r="54" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -6955,7 +7323,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
-      <c r="O54" s="32"/>
+      <c r="O54" s="31"/>
       <c r="P54" s="24"/>
       <c r="Q54" s="24"/>
       <c r="R54" s="10"/>
@@ -6967,7 +7335,7 @@
       <c r="X54" s="10"/>
       <c r="Y54" s="10"/>
       <c r="Z54" s="10"/>
-      <c r="AA54" s="32"/>
+      <c r="AA54" s="31"/>
       <c r="AB54" s="10"/>
       <c r="AC54" s="10"/>
       <c r="AD54" s="10"/>
@@ -7014,9 +7382,15 @@
       <c r="BS54" s="10"/>
       <c r="BT54" s="10"/>
       <c r="BU54" s="10"/>
-      <c r="BV54" s="11"/>
-    </row>
-    <row r="55" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV54" s="10"/>
+      <c r="BW54" s="10"/>
+      <c r="BX54" s="10"/>
+      <c r="BY54" s="10"/>
+      <c r="BZ54" s="10"/>
+      <c r="CA54" s="10"/>
+      <c r="CB54" s="11"/>
+    </row>
+    <row r="55" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -7033,7 +7407,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
-      <c r="O55" s="32"/>
+      <c r="O55" s="31"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
@@ -7045,7 +7419,7 @@
       <c r="X55" s="10"/>
       <c r="Y55" s="10"/>
       <c r="Z55" s="24"/>
-      <c r="AA55" s="32"/>
+      <c r="AA55" s="31"/>
       <c r="AB55" s="10"/>
       <c r="AC55" s="10"/>
       <c r="AD55" s="10"/>
@@ -7092,9 +7466,15 @@
       <c r="BS55" s="10"/>
       <c r="BT55" s="10"/>
       <c r="BU55" s="10"/>
-      <c r="BV55" s="11"/>
-    </row>
-    <row r="56" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV55" s="10"/>
+      <c r="BW55" s="10"/>
+      <c r="BX55" s="10"/>
+      <c r="BY55" s="10"/>
+      <c r="BZ55" s="10"/>
+      <c r="CA55" s="10"/>
+      <c r="CB55" s="11"/>
+    </row>
+    <row r="56" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -7107,7 +7487,7 @@
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
-      <c r="K56" s="32"/>
+      <c r="K56" s="31"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
@@ -7170,9 +7550,15 @@
       <c r="BS56" s="10"/>
       <c r="BT56" s="10"/>
       <c r="BU56" s="10"/>
-      <c r="BV56" s="11"/>
-    </row>
-    <row r="57" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV56" s="10"/>
+      <c r="BW56" s="10"/>
+      <c r="BX56" s="10"/>
+      <c r="BY56" s="10"/>
+      <c r="BZ56" s="10"/>
+      <c r="CA56" s="10"/>
+      <c r="CB56" s="11"/>
+    </row>
+    <row r="57" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -7185,8 +7571,8 @@
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="24"/>
@@ -7248,9 +7634,15 @@
       <c r="BS57" s="10"/>
       <c r="BT57" s="10"/>
       <c r="BU57" s="10"/>
-      <c r="BV57" s="11"/>
-    </row>
-    <row r="58" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV57" s="10"/>
+      <c r="BW57" s="10"/>
+      <c r="BX57" s="10"/>
+      <c r="BY57" s="10"/>
+      <c r="BZ57" s="10"/>
+      <c r="CA57" s="10"/>
+      <c r="CB57" s="11"/>
+    </row>
+    <row r="58" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -7270,7 +7662,7 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
-      <c r="R58" s="32"/>
+      <c r="R58" s="31"/>
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
@@ -7326,9 +7718,15 @@
       <c r="BS58" s="10"/>
       <c r="BT58" s="10"/>
       <c r="BU58" s="10"/>
-      <c r="BV58" s="11"/>
-    </row>
-    <row r="59" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV58" s="10"/>
+      <c r="BW58" s="10"/>
+      <c r="BX58" s="10"/>
+      <c r="BY58" s="10"/>
+      <c r="BZ58" s="10"/>
+      <c r="CA58" s="10"/>
+      <c r="CB58" s="11"/>
+    </row>
+    <row r="59" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -7349,7 +7747,7 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
-      <c r="S59" s="32"/>
+      <c r="S59" s="31"/>
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
@@ -7404,9 +7802,15 @@
       <c r="BS59" s="10"/>
       <c r="BT59" s="10"/>
       <c r="BU59" s="10"/>
-      <c r="BV59" s="11"/>
-    </row>
-    <row r="60" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV59" s="10"/>
+      <c r="BW59" s="10"/>
+      <c r="BX59" s="10"/>
+      <c r="BY59" s="10"/>
+      <c r="BZ59" s="10"/>
+      <c r="CA59" s="10"/>
+      <c r="CB59" s="11"/>
+    </row>
+    <row r="60" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -7428,7 +7832,7 @@
       <c r="Q60" s="10"/>
       <c r="R60" s="24"/>
       <c r="S60" s="10"/>
-      <c r="T60" s="32"/>
+      <c r="T60" s="31"/>
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
       <c r="W60" s="10"/>
@@ -7482,9 +7886,15 @@
       <c r="BS60" s="10"/>
       <c r="BT60" s="10"/>
       <c r="BU60" s="10"/>
-      <c r="BV60" s="11"/>
-    </row>
-    <row r="61" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV60" s="10"/>
+      <c r="BW60" s="10"/>
+      <c r="BX60" s="10"/>
+      <c r="BY60" s="10"/>
+      <c r="BZ60" s="10"/>
+      <c r="CA60" s="10"/>
+      <c r="CB60" s="11"/>
+    </row>
+    <row r="61" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -7504,7 +7914,7 @@
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
-      <c r="R61" s="32"/>
+      <c r="R61" s="31"/>
       <c r="S61" s="24"/>
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
@@ -7560,9 +7970,15 @@
       <c r="BS61" s="10"/>
       <c r="BT61" s="10"/>
       <c r="BU61" s="10"/>
-      <c r="BV61" s="11"/>
-    </row>
-    <row r="62" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV61" s="10"/>
+      <c r="BW61" s="10"/>
+      <c r="BX61" s="10"/>
+      <c r="BY61" s="10"/>
+      <c r="BZ61" s="10"/>
+      <c r="CA61" s="10"/>
+      <c r="CB61" s="11"/>
+    </row>
+    <row r="62" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -7583,7 +7999,7 @@
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
-      <c r="S62" s="32"/>
+      <c r="S62" s="31"/>
       <c r="T62" s="24"/>
       <c r="U62" s="10"/>
       <c r="V62" s="10"/>
@@ -7638,9 +8054,15 @@
       <c r="BS62" s="10"/>
       <c r="BT62" s="10"/>
       <c r="BU62" s="10"/>
-      <c r="BV62" s="11"/>
-    </row>
-    <row r="63" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV62" s="10"/>
+      <c r="BW62" s="10"/>
+      <c r="BX62" s="10"/>
+      <c r="BY62" s="10"/>
+      <c r="BZ62" s="10"/>
+      <c r="CA62" s="10"/>
+      <c r="CB62" s="11"/>
+    </row>
+    <row r="63" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -7662,7 +8084,7 @@
       <c r="Q63" s="10"/>
       <c r="R63" s="24"/>
       <c r="S63" s="10"/>
-      <c r="T63" s="32"/>
+      <c r="T63" s="31"/>
       <c r="U63" s="10"/>
       <c r="V63" s="10"/>
       <c r="W63" s="10"/>
@@ -7716,9 +8138,15 @@
       <c r="BS63" s="10"/>
       <c r="BT63" s="10"/>
       <c r="BU63" s="10"/>
-      <c r="BV63" s="11"/>
-    </row>
-    <row r="64" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV63" s="10"/>
+      <c r="BW63" s="10"/>
+      <c r="BX63" s="10"/>
+      <c r="BY63" s="10"/>
+      <c r="BZ63" s="10"/>
+      <c r="CA63" s="10"/>
+      <c r="CB63" s="11"/>
+    </row>
+    <row r="64" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -7794,9 +8222,15 @@
       <c r="BS64" s="10"/>
       <c r="BT64" s="10"/>
       <c r="BU64" s="10"/>
-      <c r="BV64" s="11"/>
-    </row>
-    <row r="65" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV64" s="10"/>
+      <c r="BW64" s="10"/>
+      <c r="BX64" s="10"/>
+      <c r="BY64" s="10"/>
+      <c r="BZ64" s="10"/>
+      <c r="CA64" s="10"/>
+      <c r="CB64" s="11"/>
+    </row>
+    <row r="65" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -7872,9 +8306,15 @@
       <c r="BS65" s="10"/>
       <c r="BT65" s="10"/>
       <c r="BU65" s="10"/>
-      <c r="BV65" s="11"/>
-    </row>
-    <row r="66" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV65" s="10"/>
+      <c r="BW65" s="10"/>
+      <c r="BX65" s="10"/>
+      <c r="BY65" s="10"/>
+      <c r="BZ65" s="10"/>
+      <c r="CA65" s="10"/>
+      <c r="CB65" s="11"/>
+    </row>
+    <row r="66" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -7914,10 +8354,10 @@
       <c r="AI66" s="10"/>
       <c r="AJ66" s="10"/>
       <c r="AK66" s="10"/>
-      <c r="AL66" s="24"/>
+      <c r="AL66" s="10"/>
       <c r="AM66" s="10"/>
       <c r="AN66" s="10"/>
-      <c r="AO66" s="10"/>
+      <c r="AO66" s="24"/>
       <c r="AP66" s="10"/>
       <c r="AQ66" s="10"/>
       <c r="AR66" s="10"/>
@@ -7950,9 +8390,15 @@
       <c r="BS66" s="10"/>
       <c r="BT66" s="10"/>
       <c r="BU66" s="10"/>
-      <c r="BV66" s="11"/>
-    </row>
-    <row r="67" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV66" s="10"/>
+      <c r="BW66" s="10"/>
+      <c r="BX66" s="10"/>
+      <c r="BY66" s="10"/>
+      <c r="BZ66" s="10"/>
+      <c r="CA66" s="10"/>
+      <c r="CB66" s="11"/>
+    </row>
+    <row r="67" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -7993,10 +8439,10 @@
       <c r="AJ67" s="10"/>
       <c r="AK67" s="10"/>
       <c r="AL67" s="10"/>
-      <c r="AM67" s="24"/>
+      <c r="AM67" s="10"/>
       <c r="AN67" s="10"/>
       <c r="AO67" s="10"/>
-      <c r="AP67" s="10"/>
+      <c r="AP67" s="24"/>
       <c r="AQ67" s="10"/>
       <c r="AR67" s="10"/>
       <c r="AS67" s="10"/>
@@ -8028,9 +8474,15 @@
       <c r="BS67" s="10"/>
       <c r="BT67" s="10"/>
       <c r="BU67" s="10"/>
-      <c r="BV67" s="11"/>
-    </row>
-    <row r="68" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV67" s="10"/>
+      <c r="BW67" s="10"/>
+      <c r="BX67" s="10"/>
+      <c r="BY67" s="10"/>
+      <c r="BZ67" s="10"/>
+      <c r="CA67" s="10"/>
+      <c r="CB67" s="11"/>
+    </row>
+    <row r="68" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -8071,10 +8523,10 @@
       <c r="AJ68" s="10"/>
       <c r="AK68" s="10"/>
       <c r="AL68" s="10"/>
-      <c r="AM68" s="24"/>
+      <c r="AM68" s="10"/>
       <c r="AN68" s="10"/>
       <c r="AO68" s="10"/>
-      <c r="AP68" s="10"/>
+      <c r="AP68" s="24"/>
       <c r="AQ68" s="10"/>
       <c r="AR68" s="10"/>
       <c r="AS68" s="10"/>
@@ -8106,9 +8558,15 @@
       <c r="BS68" s="10"/>
       <c r="BT68" s="10"/>
       <c r="BU68" s="10"/>
-      <c r="BV68" s="11"/>
-    </row>
-    <row r="69" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV68" s="10"/>
+      <c r="BW68" s="10"/>
+      <c r="BX68" s="10"/>
+      <c r="BY68" s="10"/>
+      <c r="BZ68" s="10"/>
+      <c r="CA68" s="10"/>
+      <c r="CB68" s="11"/>
+    </row>
+    <row r="69" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -8150,10 +8608,10 @@
       <c r="AK69" s="10"/>
       <c r="AL69" s="10"/>
       <c r="AM69" s="10"/>
-      <c r="AN69" s="24"/>
+      <c r="AN69" s="10"/>
       <c r="AO69" s="10"/>
       <c r="AP69" s="10"/>
-      <c r="AQ69" s="10"/>
+      <c r="AQ69" s="24"/>
       <c r="AR69" s="10"/>
       <c r="AS69" s="10"/>
       <c r="AT69" s="10"/>
@@ -8184,9 +8642,15 @@
       <c r="BS69" s="10"/>
       <c r="BT69" s="10"/>
       <c r="BU69" s="10"/>
-      <c r="BV69" s="11"/>
-    </row>
-    <row r="70" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV69" s="10"/>
+      <c r="BW69" s="10"/>
+      <c r="BX69" s="10"/>
+      <c r="BY69" s="10"/>
+      <c r="BZ69" s="10"/>
+      <c r="CA69" s="10"/>
+      <c r="CB69" s="11"/>
+    </row>
+    <row r="70" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -8229,10 +8693,10 @@
       <c r="AL70" s="10"/>
       <c r="AM70" s="10"/>
       <c r="AN70" s="10"/>
-      <c r="AO70" s="24"/>
+      <c r="AO70" s="10"/>
       <c r="AP70" s="10"/>
       <c r="AQ70" s="10"/>
-      <c r="AR70" s="10"/>
+      <c r="AR70" s="24"/>
       <c r="AS70" s="10"/>
       <c r="AT70" s="10"/>
       <c r="AU70" s="10"/>
@@ -8262,9 +8726,15 @@
       <c r="BS70" s="10"/>
       <c r="BT70" s="10"/>
       <c r="BU70" s="10"/>
-      <c r="BV70" s="11"/>
-    </row>
-    <row r="71" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV70" s="10"/>
+      <c r="BW70" s="10"/>
+      <c r="BX70" s="10"/>
+      <c r="BY70" s="10"/>
+      <c r="BZ70" s="10"/>
+      <c r="CA70" s="10"/>
+      <c r="CB70" s="11"/>
+    </row>
+    <row r="71" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -8307,10 +8777,10 @@
       <c r="AL71" s="10"/>
       <c r="AM71" s="10"/>
       <c r="AN71" s="10"/>
-      <c r="AO71" s="24"/>
+      <c r="AO71" s="10"/>
       <c r="AP71" s="10"/>
       <c r="AQ71" s="10"/>
-      <c r="AR71" s="10"/>
+      <c r="AR71" s="24"/>
       <c r="AS71" s="10"/>
       <c r="AT71" s="10"/>
       <c r="AU71" s="10"/>
@@ -8340,9 +8810,15 @@
       <c r="BS71" s="10"/>
       <c r="BT71" s="10"/>
       <c r="BU71" s="10"/>
-      <c r="BV71" s="11"/>
-    </row>
-    <row r="72" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV71" s="10"/>
+      <c r="BW71" s="10"/>
+      <c r="BX71" s="10"/>
+      <c r="BY71" s="10"/>
+      <c r="BZ71" s="10"/>
+      <c r="CA71" s="10"/>
+      <c r="CB71" s="11"/>
+    </row>
+    <row r="72" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -8386,10 +8862,10 @@
       <c r="AM72" s="10"/>
       <c r="AN72" s="10"/>
       <c r="AO72" s="10"/>
-      <c r="AP72" s="24"/>
+      <c r="AP72" s="10"/>
       <c r="AQ72" s="10"/>
       <c r="AR72" s="10"/>
-      <c r="AS72" s="10"/>
+      <c r="AS72" s="24"/>
       <c r="AT72" s="10"/>
       <c r="AU72" s="10"/>
       <c r="AV72" s="10"/>
@@ -8418,9 +8894,15 @@
       <c r="BS72" s="10"/>
       <c r="BT72" s="10"/>
       <c r="BU72" s="10"/>
-      <c r="BV72" s="11"/>
-    </row>
-    <row r="73" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV72" s="10"/>
+      <c r="BW72" s="10"/>
+      <c r="BX72" s="10"/>
+      <c r="BY72" s="10"/>
+      <c r="BZ72" s="10"/>
+      <c r="CA72" s="10"/>
+      <c r="CB72" s="11"/>
+    </row>
+    <row r="73" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -8465,10 +8947,10 @@
       <c r="AN73" s="10"/>
       <c r="AO73" s="10"/>
       <c r="AP73" s="10"/>
-      <c r="AQ73" s="24"/>
+      <c r="AQ73" s="10"/>
       <c r="AR73" s="10"/>
       <c r="AS73" s="10"/>
-      <c r="AT73" s="10"/>
+      <c r="AT73" s="24"/>
       <c r="AU73" s="10"/>
       <c r="AV73" s="10"/>
       <c r="AW73" s="10"/>
@@ -8496,9 +8978,15 @@
       <c r="BS73" s="10"/>
       <c r="BT73" s="10"/>
       <c r="BU73" s="10"/>
-      <c r="BV73" s="11"/>
-    </row>
-    <row r="74" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV73" s="10"/>
+      <c r="BW73" s="10"/>
+      <c r="BX73" s="10"/>
+      <c r="BY73" s="10"/>
+      <c r="BZ73" s="10"/>
+      <c r="CA73" s="10"/>
+      <c r="CB73" s="11"/>
+    </row>
+    <row r="74" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -8544,10 +9032,10 @@
       <c r="AO74" s="10"/>
       <c r="AP74" s="10"/>
       <c r="AQ74" s="10"/>
-      <c r="AR74" s="24"/>
+      <c r="AR74" s="10"/>
       <c r="AS74" s="10"/>
       <c r="AT74" s="10"/>
-      <c r="AU74" s="10"/>
+      <c r="AU74" s="24"/>
       <c r="AV74" s="10"/>
       <c r="AW74" s="10"/>
       <c r="AX74" s="10"/>
@@ -8574,9 +9062,15 @@
       <c r="BS74" s="10"/>
       <c r="BT74" s="10"/>
       <c r="BU74" s="10"/>
-      <c r="BV74" s="11"/>
-    </row>
-    <row r="75" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV74" s="10"/>
+      <c r="BW74" s="10"/>
+      <c r="BX74" s="10"/>
+      <c r="BY74" s="10"/>
+      <c r="BZ74" s="10"/>
+      <c r="CA74" s="10"/>
+      <c r="CB74" s="11"/>
+    </row>
+    <row r="75" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -8623,10 +9117,10 @@
       <c r="AP75" s="10"/>
       <c r="AQ75" s="10"/>
       <c r="AR75" s="10"/>
-      <c r="AS75" s="24"/>
+      <c r="AS75" s="10"/>
       <c r="AT75" s="10"/>
       <c r="AU75" s="10"/>
-      <c r="AV75" s="10"/>
+      <c r="AV75" s="24"/>
       <c r="AW75" s="10"/>
       <c r="AX75" s="10"/>
       <c r="AY75" s="10"/>
@@ -8652,9 +9146,15 @@
       <c r="BS75" s="10"/>
       <c r="BT75" s="10"/>
       <c r="BU75" s="10"/>
-      <c r="BV75" s="11"/>
-    </row>
-    <row r="76" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV75" s="10"/>
+      <c r="BW75" s="10"/>
+      <c r="BX75" s="10"/>
+      <c r="BY75" s="10"/>
+      <c r="BZ75" s="10"/>
+      <c r="CA75" s="10"/>
+      <c r="CB75" s="11"/>
+    </row>
+    <row r="76" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -8702,10 +9202,10 @@
       <c r="AQ76" s="10"/>
       <c r="AR76" s="10"/>
       <c r="AS76" s="10"/>
-      <c r="AT76" s="24"/>
+      <c r="AT76" s="10"/>
       <c r="AU76" s="10"/>
       <c r="AV76" s="10"/>
-      <c r="AW76" s="10"/>
+      <c r="AW76" s="24"/>
       <c r="AX76" s="10"/>
       <c r="AY76" s="10"/>
       <c r="AZ76" s="10"/>
@@ -8730,9 +9230,15 @@
       <c r="BS76" s="10"/>
       <c r="BT76" s="10"/>
       <c r="BU76" s="10"/>
-      <c r="BV76" s="11"/>
-    </row>
-    <row r="77" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV76" s="10"/>
+      <c r="BW76" s="10"/>
+      <c r="BX76" s="10"/>
+      <c r="BY76" s="10"/>
+      <c r="BZ76" s="10"/>
+      <c r="CA76" s="10"/>
+      <c r="CB76" s="11"/>
+    </row>
+    <row r="77" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -8781,10 +9287,10 @@
       <c r="AR77" s="10"/>
       <c r="AS77" s="10"/>
       <c r="AT77" s="10"/>
-      <c r="AU77" s="24"/>
+      <c r="AU77" s="10"/>
       <c r="AV77" s="10"/>
       <c r="AW77" s="10"/>
-      <c r="AX77" s="10"/>
+      <c r="AX77" s="24"/>
       <c r="AY77" s="10"/>
       <c r="AZ77" s="10"/>
       <c r="BA77" s="10"/>
@@ -8808,9 +9314,15 @@
       <c r="BS77" s="10"/>
       <c r="BT77" s="10"/>
       <c r="BU77" s="10"/>
-      <c r="BV77" s="11"/>
-    </row>
-    <row r="78" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV77" s="10"/>
+      <c r="BW77" s="10"/>
+      <c r="BX77" s="10"/>
+      <c r="BY77" s="10"/>
+      <c r="BZ77" s="10"/>
+      <c r="CA77" s="10"/>
+      <c r="CB77" s="11"/>
+    </row>
+    <row r="78" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -8860,10 +9372,10 @@
       <c r="AS78" s="10"/>
       <c r="AT78" s="10"/>
       <c r="AU78" s="10"/>
-      <c r="AV78" s="24"/>
+      <c r="AV78" s="10"/>
       <c r="AW78" s="10"/>
       <c r="AX78" s="10"/>
-      <c r="AY78" s="10"/>
+      <c r="AY78" s="24"/>
       <c r="AZ78" s="10"/>
       <c r="BA78" s="10"/>
       <c r="BB78" s="10"/>
@@ -8886,9 +9398,15 @@
       <c r="BS78" s="10"/>
       <c r="BT78" s="10"/>
       <c r="BU78" s="10"/>
-      <c r="BV78" s="11"/>
-    </row>
-    <row r="79" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV78" s="10"/>
+      <c r="BW78" s="10"/>
+      <c r="BX78" s="10"/>
+      <c r="BY78" s="10"/>
+      <c r="BZ78" s="10"/>
+      <c r="CA78" s="10"/>
+      <c r="CB78" s="11"/>
+    </row>
+    <row r="79" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -8939,10 +9457,10 @@
       <c r="AT79" s="10"/>
       <c r="AU79" s="10"/>
       <c r="AV79" s="10"/>
-      <c r="AW79" s="24"/>
+      <c r="AW79" s="10"/>
       <c r="AX79" s="10"/>
       <c r="AY79" s="10"/>
-      <c r="AZ79" s="10"/>
+      <c r="AZ79" s="24"/>
       <c r="BA79" s="10"/>
       <c r="BB79" s="10"/>
       <c r="BC79" s="10"/>
@@ -8964,9 +9482,15 @@
       <c r="BS79" s="10"/>
       <c r="BT79" s="10"/>
       <c r="BU79" s="10"/>
-      <c r="BV79" s="11"/>
-    </row>
-    <row r="80" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV79" s="10"/>
+      <c r="BW79" s="10"/>
+      <c r="BX79" s="10"/>
+      <c r="BY79" s="10"/>
+      <c r="BZ79" s="10"/>
+      <c r="CA79" s="10"/>
+      <c r="CB79" s="11"/>
+    </row>
+    <row r="80" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -9018,10 +9542,10 @@
       <c r="AU80" s="10"/>
       <c r="AV80" s="10"/>
       <c r="AW80" s="10"/>
-      <c r="AX80" s="24"/>
+      <c r="AX80" s="10"/>
       <c r="AY80" s="10"/>
       <c r="AZ80" s="10"/>
-      <c r="BA80" s="10"/>
+      <c r="BA80" s="24"/>
       <c r="BB80" s="10"/>
       <c r="BC80" s="10"/>
       <c r="BD80" s="10"/>
@@ -9042,9 +9566,15 @@
       <c r="BS80" s="10"/>
       <c r="BT80" s="10"/>
       <c r="BU80" s="10"/>
-      <c r="BV80" s="11"/>
-    </row>
-    <row r="81" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV80" s="10"/>
+      <c r="BW80" s="10"/>
+      <c r="BX80" s="10"/>
+      <c r="BY80" s="10"/>
+      <c r="BZ80" s="10"/>
+      <c r="CA80" s="10"/>
+      <c r="CB80" s="11"/>
+    </row>
+    <row r="81" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -9097,10 +9627,10 @@
       <c r="AV81" s="10"/>
       <c r="AW81" s="10"/>
       <c r="AX81" s="10"/>
-      <c r="AY81" s="24"/>
+      <c r="AY81" s="10"/>
       <c r="AZ81" s="10"/>
       <c r="BA81" s="10"/>
-      <c r="BB81" s="10"/>
+      <c r="BB81" s="24"/>
       <c r="BC81" s="10"/>
       <c r="BD81" s="10"/>
       <c r="BE81" s="10"/>
@@ -9120,9 +9650,15 @@
       <c r="BS81" s="10"/>
       <c r="BT81" s="10"/>
       <c r="BU81" s="10"/>
-      <c r="BV81" s="11"/>
-    </row>
-    <row r="82" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV81" s="10"/>
+      <c r="BW81" s="10"/>
+      <c r="BX81" s="10"/>
+      <c r="BY81" s="10"/>
+      <c r="BZ81" s="10"/>
+      <c r="CA81" s="10"/>
+      <c r="CB81" s="11"/>
+    </row>
+    <row r="82" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -9176,10 +9712,10 @@
       <c r="AW82" s="10"/>
       <c r="AX82" s="10"/>
       <c r="AY82" s="10"/>
-      <c r="AZ82" s="24"/>
+      <c r="AZ82" s="10"/>
       <c r="BA82" s="10"/>
       <c r="BB82" s="10"/>
-      <c r="BC82" s="10"/>
+      <c r="BC82" s="24"/>
       <c r="BD82" s="10"/>
       <c r="BE82" s="10"/>
       <c r="BF82" s="10"/>
@@ -9198,9 +9734,15 @@
       <c r="BS82" s="10"/>
       <c r="BT82" s="10"/>
       <c r="BU82" s="10"/>
-      <c r="BV82" s="11"/>
-    </row>
-    <row r="83" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV82" s="10"/>
+      <c r="BW82" s="10"/>
+      <c r="BX82" s="10"/>
+      <c r="BY82" s="10"/>
+      <c r="BZ82" s="10"/>
+      <c r="CA82" s="10"/>
+      <c r="CB82" s="11"/>
+    </row>
+    <row r="83" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -9255,10 +9797,10 @@
       <c r="AX83" s="10"/>
       <c r="AY83" s="10"/>
       <c r="AZ83" s="10"/>
-      <c r="BA83" s="24"/>
+      <c r="BA83" s="10"/>
       <c r="BB83" s="10"/>
       <c r="BC83" s="10"/>
-      <c r="BD83" s="10"/>
+      <c r="BD83" s="24"/>
       <c r="BE83" s="10"/>
       <c r="BF83" s="10"/>
       <c r="BG83" s="10"/>
@@ -9276,9 +9818,15 @@
       <c r="BS83" s="10"/>
       <c r="BT83" s="10"/>
       <c r="BU83" s="10"/>
-      <c r="BV83" s="11"/>
-    </row>
-    <row r="84" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV83" s="10"/>
+      <c r="BW83" s="10"/>
+      <c r="BX83" s="10"/>
+      <c r="BY83" s="10"/>
+      <c r="BZ83" s="10"/>
+      <c r="CA83" s="10"/>
+      <c r="CB83" s="11"/>
+    </row>
+    <row r="84" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -9334,10 +9882,10 @@
       <c r="AY84" s="10"/>
       <c r="AZ84" s="10"/>
       <c r="BA84" s="10"/>
-      <c r="BB84" s="24"/>
+      <c r="BB84" s="10"/>
       <c r="BC84" s="10"/>
       <c r="BD84" s="10"/>
-      <c r="BE84" s="10"/>
+      <c r="BE84" s="24"/>
       <c r="BF84" s="10"/>
       <c r="BG84" s="10"/>
       <c r="BH84" s="10"/>
@@ -9354,9 +9902,15 @@
       <c r="BS84" s="10"/>
       <c r="BT84" s="10"/>
       <c r="BU84" s="10"/>
-      <c r="BV84" s="11"/>
-    </row>
-    <row r="85" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV84" s="10"/>
+      <c r="BW84" s="10"/>
+      <c r="BX84" s="10"/>
+      <c r="BY84" s="10"/>
+      <c r="BZ84" s="10"/>
+      <c r="CA84" s="10"/>
+      <c r="CB84" s="11"/>
+    </row>
+    <row r="85" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -9413,10 +9967,10 @@
       <c r="AZ85" s="10"/>
       <c r="BA85" s="10"/>
       <c r="BB85" s="10"/>
-      <c r="BC85" s="24"/>
+      <c r="BC85" s="10"/>
       <c r="BD85" s="10"/>
       <c r="BE85" s="10"/>
-      <c r="BF85" s="10"/>
+      <c r="BF85" s="24"/>
       <c r="BG85" s="10"/>
       <c r="BH85" s="10"/>
       <c r="BI85" s="10"/>
@@ -9432,9 +9986,15 @@
       <c r="BS85" s="10"/>
       <c r="BT85" s="10"/>
       <c r="BU85" s="10"/>
-      <c r="BV85" s="11"/>
-    </row>
-    <row r="86" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV85" s="10"/>
+      <c r="BW85" s="10"/>
+      <c r="BX85" s="10"/>
+      <c r="BY85" s="10"/>
+      <c r="BZ85" s="10"/>
+      <c r="CA85" s="10"/>
+      <c r="CB85" s="11"/>
+    </row>
+    <row r="86" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -9492,10 +10052,10 @@
       <c r="BA86" s="10"/>
       <c r="BB86" s="10"/>
       <c r="BC86" s="10"/>
-      <c r="BD86" s="24"/>
+      <c r="BD86" s="10"/>
       <c r="BE86" s="10"/>
       <c r="BF86" s="10"/>
-      <c r="BG86" s="10"/>
+      <c r="BG86" s="24"/>
       <c r="BH86" s="10"/>
       <c r="BI86" s="10"/>
       <c r="BJ86" s="10"/>
@@ -9510,9 +10070,15 @@
       <c r="BS86" s="10"/>
       <c r="BT86" s="10"/>
       <c r="BU86" s="10"/>
-      <c r="BV86" s="11"/>
-    </row>
-    <row r="87" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV86" s="10"/>
+      <c r="BW86" s="10"/>
+      <c r="BX86" s="10"/>
+      <c r="BY86" s="10"/>
+      <c r="BZ86" s="10"/>
+      <c r="CA86" s="10"/>
+      <c r="CB86" s="11"/>
+    </row>
+    <row r="87" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -9571,10 +10137,10 @@
       <c r="BB87" s="10"/>
       <c r="BC87" s="10"/>
       <c r="BD87" s="10"/>
-      <c r="BE87" s="24"/>
+      <c r="BE87" s="10"/>
       <c r="BF87" s="10"/>
       <c r="BG87" s="10"/>
-      <c r="BH87" s="10"/>
+      <c r="BH87" s="24"/>
       <c r="BI87" s="10"/>
       <c r="BJ87" s="10"/>
       <c r="BK87" s="10"/>
@@ -9588,9 +10154,15 @@
       <c r="BS87" s="10"/>
       <c r="BT87" s="10"/>
       <c r="BU87" s="10"/>
-      <c r="BV87" s="11"/>
-    </row>
-    <row r="88" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV87" s="10"/>
+      <c r="BW87" s="10"/>
+      <c r="BX87" s="10"/>
+      <c r="BY87" s="10"/>
+      <c r="BZ87" s="10"/>
+      <c r="CA87" s="10"/>
+      <c r="CB87" s="11"/>
+    </row>
+    <row r="88" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -9650,10 +10222,10 @@
       <c r="BC88" s="10"/>
       <c r="BD88" s="10"/>
       <c r="BE88" s="10"/>
-      <c r="BF88" s="24"/>
+      <c r="BF88" s="10"/>
       <c r="BG88" s="10"/>
       <c r="BH88" s="10"/>
-      <c r="BI88" s="10"/>
+      <c r="BI88" s="24"/>
       <c r="BJ88" s="10"/>
       <c r="BK88" s="10"/>
       <c r="BL88" s="10"/>
@@ -9666,9 +10238,15 @@
       <c r="BS88" s="10"/>
       <c r="BT88" s="10"/>
       <c r="BU88" s="10"/>
-      <c r="BV88" s="11"/>
-    </row>
-    <row r="89" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV88" s="10"/>
+      <c r="BW88" s="10"/>
+      <c r="BX88" s="10"/>
+      <c r="BY88" s="10"/>
+      <c r="BZ88" s="10"/>
+      <c r="CA88" s="10"/>
+      <c r="CB88" s="11"/>
+    </row>
+    <row r="89" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -9729,10 +10307,10 @@
       <c r="BD89" s="10"/>
       <c r="BE89" s="10"/>
       <c r="BF89" s="10"/>
-      <c r="BG89" s="24"/>
+      <c r="BG89" s="10"/>
       <c r="BH89" s="10"/>
       <c r="BI89" s="10"/>
-      <c r="BJ89" s="10"/>
+      <c r="BJ89" s="24"/>
       <c r="BK89" s="10"/>
       <c r="BL89" s="10"/>
       <c r="BM89" s="10"/>
@@ -9744,9 +10322,15 @@
       <c r="BS89" s="10"/>
       <c r="BT89" s="10"/>
       <c r="BU89" s="10"/>
-      <c r="BV89" s="11"/>
-    </row>
-    <row r="90" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV89" s="10"/>
+      <c r="BW89" s="10"/>
+      <c r="BX89" s="10"/>
+      <c r="BY89" s="10"/>
+      <c r="BZ89" s="10"/>
+      <c r="CA89" s="10"/>
+      <c r="CB89" s="11"/>
+    </row>
+    <row r="90" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -9808,10 +10392,10 @@
       <c r="BE90" s="10"/>
       <c r="BF90" s="10"/>
       <c r="BG90" s="10"/>
-      <c r="BH90" s="24"/>
+      <c r="BH90" s="10"/>
       <c r="BI90" s="10"/>
       <c r="BJ90" s="10"/>
-      <c r="BK90" s="10"/>
+      <c r="BK90" s="24"/>
       <c r="BL90" s="10"/>
       <c r="BM90" s="10"/>
       <c r="BN90" s="10"/>
@@ -9822,9 +10406,15 @@
       <c r="BS90" s="10"/>
       <c r="BT90" s="10"/>
       <c r="BU90" s="10"/>
-      <c r="BV90" s="11"/>
-    </row>
-    <row r="91" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV90" s="10"/>
+      <c r="BW90" s="10"/>
+      <c r="BX90" s="10"/>
+      <c r="BY90" s="10"/>
+      <c r="BZ90" s="10"/>
+      <c r="CA90" s="10"/>
+      <c r="CB90" s="11"/>
+    </row>
+    <row r="91" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -9887,10 +10477,10 @@
       <c r="BF91" s="10"/>
       <c r="BG91" s="10"/>
       <c r="BH91" s="10"/>
-      <c r="BI91" s="24"/>
+      <c r="BI91" s="10"/>
       <c r="BJ91" s="10"/>
       <c r="BK91" s="10"/>
-      <c r="BL91" s="10"/>
+      <c r="BL91" s="24"/>
       <c r="BM91" s="10"/>
       <c r="BN91" s="10"/>
       <c r="BO91" s="10"/>
@@ -9900,9 +10490,15 @@
       <c r="BS91" s="10"/>
       <c r="BT91" s="10"/>
       <c r="BU91" s="10"/>
-      <c r="BV91" s="11"/>
-    </row>
-    <row r="92" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV91" s="10"/>
+      <c r="BW91" s="10"/>
+      <c r="BX91" s="10"/>
+      <c r="BY91" s="10"/>
+      <c r="BZ91" s="10"/>
+      <c r="CA91" s="10"/>
+      <c r="CB91" s="11"/>
+    </row>
+    <row r="92" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -9966,10 +10562,10 @@
       <c r="BG92" s="10"/>
       <c r="BH92" s="10"/>
       <c r="BI92" s="10"/>
-      <c r="BJ92" s="24"/>
+      <c r="BJ92" s="10"/>
       <c r="BK92" s="10"/>
       <c r="BL92" s="10"/>
-      <c r="BM92" s="10"/>
+      <c r="BM92" s="24"/>
       <c r="BN92" s="10"/>
       <c r="BO92" s="10"/>
       <c r="BP92" s="10"/>
@@ -9978,9 +10574,15 @@
       <c r="BS92" s="10"/>
       <c r="BT92" s="10"/>
       <c r="BU92" s="10"/>
-      <c r="BV92" s="11"/>
-    </row>
-    <row r="93" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV92" s="10"/>
+      <c r="BW92" s="10"/>
+      <c r="BX92" s="10"/>
+      <c r="BY92" s="10"/>
+      <c r="BZ92" s="10"/>
+      <c r="CA92" s="10"/>
+      <c r="CB92" s="11"/>
+    </row>
+    <row r="93" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -10045,10 +10647,10 @@
       <c r="BH93" s="10"/>
       <c r="BI93" s="10"/>
       <c r="BJ93" s="10"/>
-      <c r="BK93" s="24"/>
+      <c r="BK93" s="10"/>
       <c r="BL93" s="10"/>
       <c r="BM93" s="10"/>
-      <c r="BN93" s="10"/>
+      <c r="BN93" s="24"/>
       <c r="BO93" s="10"/>
       <c r="BP93" s="10"/>
       <c r="BQ93" s="10"/>
@@ -10056,9 +10658,15 @@
       <c r="BS93" s="10"/>
       <c r="BT93" s="10"/>
       <c r="BU93" s="10"/>
-      <c r="BV93" s="11"/>
-    </row>
-    <row r="94" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV93" s="10"/>
+      <c r="BW93" s="10"/>
+      <c r="BX93" s="10"/>
+      <c r="BY93" s="10"/>
+      <c r="BZ93" s="10"/>
+      <c r="CA93" s="10"/>
+      <c r="CB93" s="11"/>
+    </row>
+    <row r="94" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -10124,19 +10732,25 @@
       <c r="BI94" s="10"/>
       <c r="BJ94" s="10"/>
       <c r="BK94" s="10"/>
-      <c r="BL94" s="24"/>
+      <c r="BL94" s="10"/>
       <c r="BM94" s="10"/>
       <c r="BN94" s="10"/>
-      <c r="BO94" s="10"/>
+      <c r="BO94" s="24"/>
       <c r="BP94" s="10"/>
       <c r="BQ94" s="10"/>
       <c r="BR94" s="10"/>
       <c r="BS94" s="10"/>
       <c r="BT94" s="10"/>
       <c r="BU94" s="10"/>
-      <c r="BV94" s="11"/>
-    </row>
-    <row r="95" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV94" s="10"/>
+      <c r="BW94" s="10"/>
+      <c r="BX94" s="10"/>
+      <c r="BY94" s="10"/>
+      <c r="BZ94" s="10"/>
+      <c r="CA94" s="10"/>
+      <c r="CB94" s="11"/>
+    </row>
+    <row r="95" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -10203,18 +10817,24 @@
       <c r="BJ95" s="10"/>
       <c r="BK95" s="10"/>
       <c r="BL95" s="10"/>
-      <c r="BM95" s="24"/>
+      <c r="BM95" s="10"/>
       <c r="BN95" s="10"/>
       <c r="BO95" s="10"/>
-      <c r="BP95" s="10"/>
+      <c r="BP95" s="24"/>
       <c r="BQ95" s="10"/>
       <c r="BR95" s="10"/>
       <c r="BS95" s="10"/>
       <c r="BT95" s="10"/>
       <c r="BU95" s="10"/>
-      <c r="BV95" s="11"/>
-    </row>
-    <row r="96" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV95" s="10"/>
+      <c r="BW95" s="10"/>
+      <c r="BX95" s="10"/>
+      <c r="BY95" s="10"/>
+      <c r="BZ95" s="10"/>
+      <c r="CA95" s="10"/>
+      <c r="CB95" s="11"/>
+    </row>
+    <row r="96" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -10282,17 +10902,23 @@
       <c r="BK96" s="10"/>
       <c r="BL96" s="10"/>
       <c r="BM96" s="10"/>
-      <c r="BN96" s="24"/>
+      <c r="BN96" s="10"/>
       <c r="BO96" s="10"/>
       <c r="BP96" s="10"/>
-      <c r="BQ96" s="10"/>
+      <c r="BQ96" s="24"/>
       <c r="BR96" s="10"/>
       <c r="BS96" s="10"/>
       <c r="BT96" s="10"/>
       <c r="BU96" s="10"/>
-      <c r="BV96" s="11"/>
-    </row>
-    <row r="97" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV96" s="10"/>
+      <c r="BW96" s="10"/>
+      <c r="BX96" s="10"/>
+      <c r="BY96" s="10"/>
+      <c r="BZ96" s="10"/>
+      <c r="CA96" s="10"/>
+      <c r="CB96" s="11"/>
+    </row>
+    <row r="97" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -10361,16 +10987,22 @@
       <c r="BL97" s="10"/>
       <c r="BM97" s="10"/>
       <c r="BN97" s="10"/>
-      <c r="BO97" s="24"/>
+      <c r="BO97" s="10"/>
       <c r="BP97" s="10"/>
       <c r="BQ97" s="10"/>
-      <c r="BR97" s="10"/>
+      <c r="BR97" s="24"/>
       <c r="BS97" s="10"/>
       <c r="BT97" s="10"/>
       <c r="BU97" s="10"/>
-      <c r="BV97" s="11"/>
-    </row>
-    <row r="98" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV97" s="10"/>
+      <c r="BW97" s="10"/>
+      <c r="BX97" s="10"/>
+      <c r="BY97" s="10"/>
+      <c r="BZ97" s="10"/>
+      <c r="CA97" s="10"/>
+      <c r="CB97" s="11"/>
+    </row>
+    <row r="98" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -10440,15 +11072,21 @@
       <c r="BM98" s="10"/>
       <c r="BN98" s="10"/>
       <c r="BO98" s="10"/>
-      <c r="BP98" s="24"/>
+      <c r="BP98" s="10"/>
       <c r="BQ98" s="10"/>
       <c r="BR98" s="10"/>
-      <c r="BS98" s="10"/>
+      <c r="BS98" s="24"/>
       <c r="BT98" s="10"/>
       <c r="BU98" s="10"/>
-      <c r="BV98" s="11"/>
-    </row>
-    <row r="99" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV98" s="10"/>
+      <c r="BW98" s="10"/>
+      <c r="BX98" s="10"/>
+      <c r="BY98" s="10"/>
+      <c r="BZ98" s="10"/>
+      <c r="CA98" s="10"/>
+      <c r="CB98" s="11"/>
+    </row>
+    <row r="99" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -10519,14 +11157,20 @@
       <c r="BN99" s="10"/>
       <c r="BO99" s="10"/>
       <c r="BP99" s="10"/>
-      <c r="BQ99" s="24"/>
+      <c r="BQ99" s="10"/>
       <c r="BR99" s="10"/>
       <c r="BS99" s="10"/>
-      <c r="BT99" s="10"/>
+      <c r="BT99" s="24"/>
       <c r="BU99" s="10"/>
-      <c r="BV99" s="11"/>
-    </row>
-    <row r="100" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV99" s="10"/>
+      <c r="BW99" s="10"/>
+      <c r="BX99" s="10"/>
+      <c r="BY99" s="10"/>
+      <c r="BZ99" s="10"/>
+      <c r="CA99" s="10"/>
+      <c r="CB99" s="11"/>
+    </row>
+    <row r="100" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -10598,13 +11242,19 @@
       <c r="BO100" s="10"/>
       <c r="BP100" s="10"/>
       <c r="BQ100" s="10"/>
-      <c r="BR100" s="24"/>
+      <c r="BR100" s="10"/>
       <c r="BS100" s="10"/>
       <c r="BT100" s="10"/>
-      <c r="BU100" s="10"/>
-      <c r="BV100" s="11"/>
-    </row>
-    <row r="101" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BU100" s="24"/>
+      <c r="BV100" s="10"/>
+      <c r="BW100" s="10"/>
+      <c r="BX100" s="10"/>
+      <c r="BY100" s="10"/>
+      <c r="BZ100" s="10"/>
+      <c r="CA100" s="10"/>
+      <c r="CB100" s="11"/>
+    </row>
+    <row r="101" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -10677,12 +11327,18 @@
       <c r="BP101" s="10"/>
       <c r="BQ101" s="10"/>
       <c r="BR101" s="10"/>
-      <c r="BS101" s="24"/>
+      <c r="BS101" s="10"/>
       <c r="BT101" s="10"/>
       <c r="BU101" s="10"/>
-      <c r="BV101" s="11"/>
-    </row>
-    <row r="102" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV101" s="24"/>
+      <c r="BW101" s="10"/>
+      <c r="BX101" s="10"/>
+      <c r="BY101" s="10"/>
+      <c r="BZ101" s="10"/>
+      <c r="CA101" s="10"/>
+      <c r="CB101" s="11"/>
+    </row>
+    <row r="102" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -10756,11 +11412,17 @@
       <c r="BQ102" s="10"/>
       <c r="BR102" s="10"/>
       <c r="BS102" s="10"/>
-      <c r="BT102" s="24"/>
+      <c r="BT102" s="10"/>
       <c r="BU102" s="10"/>
-      <c r="BV102" s="11"/>
-    </row>
-    <row r="103" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV102" s="10"/>
+      <c r="BW102" s="24"/>
+      <c r="BX102" s="10"/>
+      <c r="BY102" s="10"/>
+      <c r="BZ102" s="10"/>
+      <c r="CA102" s="10"/>
+      <c r="CB102" s="11"/>
+    </row>
+    <row r="103" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -10835,90 +11497,352 @@
       <c r="BR103" s="10"/>
       <c r="BS103" s="10"/>
       <c r="BT103" s="10"/>
-      <c r="BU103" s="24"/>
-      <c r="BV103" s="11"/>
-    </row>
-    <row r="104" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BU103" s="10"/>
+      <c r="BV103" s="10"/>
+      <c r="BW103" s="10"/>
+      <c r="BX103" s="24"/>
+      <c r="BY103" s="10"/>
+      <c r="BZ103" s="10"/>
+      <c r="CA103" s="10"/>
+      <c r="CB103" s="11"/>
+    </row>
+    <row r="104" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>103</v>
       </c>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
-      <c r="O104" s="13"/>
-      <c r="P104" s="13"/>
-      <c r="Q104" s="13"/>
-      <c r="R104" s="13"/>
-      <c r="S104" s="13"/>
-      <c r="T104" s="13"/>
-      <c r="U104" s="13"/>
-      <c r="V104" s="13"/>
-      <c r="W104" s="13"/>
-      <c r="X104" s="13"/>
-      <c r="Y104" s="13"/>
-      <c r="Z104" s="13"/>
-      <c r="AA104" s="13"/>
-      <c r="AB104" s="13"/>
-      <c r="AC104" s="13"/>
-      <c r="AD104" s="13"/>
-      <c r="AE104" s="13"/>
-      <c r="AF104" s="13"/>
-      <c r="AG104" s="13"/>
-      <c r="AH104" s="13"/>
-      <c r="AI104" s="13"/>
-      <c r="AJ104" s="13"/>
-      <c r="AK104" s="13"/>
-      <c r="AL104" s="13"/>
-      <c r="AM104" s="13"/>
-      <c r="AN104" s="13"/>
-      <c r="AO104" s="13"/>
-      <c r="AP104" s="13"/>
-      <c r="AQ104" s="13"/>
-      <c r="AR104" s="13"/>
-      <c r="AS104" s="13"/>
-      <c r="AT104" s="13"/>
-      <c r="AU104" s="13"/>
-      <c r="AV104" s="13"/>
-      <c r="AW104" s="13"/>
-      <c r="AX104" s="13"/>
-      <c r="AY104" s="13"/>
-      <c r="AZ104" s="13"/>
-      <c r="BA104" s="13"/>
-      <c r="BB104" s="13"/>
-      <c r="BC104" s="13"/>
-      <c r="BD104" s="13"/>
-      <c r="BE104" s="13"/>
-      <c r="BF104" s="13"/>
-      <c r="BG104" s="13"/>
-      <c r="BH104" s="13"/>
-      <c r="BI104" s="13"/>
-      <c r="BJ104" s="13"/>
-      <c r="BK104" s="13"/>
-      <c r="BL104" s="13"/>
-      <c r="BM104" s="13"/>
-      <c r="BN104" s="13"/>
-      <c r="BO104" s="13"/>
-      <c r="BP104" s="13"/>
-      <c r="BQ104" s="13"/>
-      <c r="BR104" s="13"/>
-      <c r="BS104" s="13"/>
-      <c r="BT104" s="13"/>
-      <c r="BU104" s="13"/>
-      <c r="BV104" s="26"/>
-    </row>
-    <row r="105" spans="1:74" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
-    </row>
+      <c r="B104" s="41"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="42"/>
+      <c r="O104" s="42"/>
+      <c r="P104" s="42"/>
+      <c r="Q104" s="42"/>
+      <c r="R104" s="42"/>
+      <c r="S104" s="42"/>
+      <c r="T104" s="42"/>
+      <c r="U104" s="42"/>
+      <c r="V104" s="42"/>
+      <c r="W104" s="42"/>
+      <c r="X104" s="42"/>
+      <c r="Y104" s="42"/>
+      <c r="Z104" s="42"/>
+      <c r="AA104" s="42"/>
+      <c r="AB104" s="42"/>
+      <c r="AC104" s="42"/>
+      <c r="AD104" s="42"/>
+      <c r="AE104" s="42"/>
+      <c r="AF104" s="42"/>
+      <c r="AG104" s="42"/>
+      <c r="AH104" s="42"/>
+      <c r="AI104" s="42"/>
+      <c r="AJ104" s="42"/>
+      <c r="AK104" s="42"/>
+      <c r="AL104" s="42"/>
+      <c r="AM104" s="42"/>
+      <c r="AN104" s="42"/>
+      <c r="AO104" s="42"/>
+      <c r="AP104" s="42"/>
+      <c r="AQ104" s="42"/>
+      <c r="AR104" s="42"/>
+      <c r="AS104" s="42"/>
+      <c r="AT104" s="42"/>
+      <c r="AU104" s="42"/>
+      <c r="AV104" s="42"/>
+      <c r="AW104" s="42"/>
+      <c r="AX104" s="42"/>
+      <c r="AY104" s="42"/>
+      <c r="AZ104" s="42"/>
+      <c r="BA104" s="42"/>
+      <c r="BB104" s="42"/>
+      <c r="BC104" s="42"/>
+      <c r="BD104" s="42"/>
+      <c r="BE104" s="42"/>
+      <c r="BF104" s="42"/>
+      <c r="BG104" s="42"/>
+      <c r="BH104" s="42"/>
+      <c r="BI104" s="42"/>
+      <c r="BJ104" s="42"/>
+      <c r="BK104" s="42"/>
+      <c r="BL104" s="42"/>
+      <c r="BM104" s="42"/>
+      <c r="BN104" s="42"/>
+      <c r="BO104" s="42"/>
+      <c r="BP104" s="42"/>
+      <c r="BQ104" s="42"/>
+      <c r="BR104" s="42"/>
+      <c r="BS104" s="42"/>
+      <c r="BT104" s="42"/>
+      <c r="BU104" s="42"/>
+      <c r="BV104" s="42"/>
+      <c r="BW104" s="42"/>
+      <c r="BX104" s="42"/>
+      <c r="BY104" s="24"/>
+      <c r="BZ104" s="10"/>
+      <c r="CA104" s="10"/>
+      <c r="CB104" s="11"/>
+    </row>
+    <row r="105" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="9"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="10"/>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10"/>
+      <c r="R105" s="10"/>
+      <c r="S105" s="10"/>
+      <c r="T105" s="10"/>
+      <c r="U105" s="10"/>
+      <c r="V105" s="10"/>
+      <c r="W105" s="10"/>
+      <c r="X105" s="10"/>
+      <c r="Y105" s="10"/>
+      <c r="Z105" s="10"/>
+      <c r="AA105" s="10"/>
+      <c r="AB105" s="10"/>
+      <c r="AC105" s="10"/>
+      <c r="AD105" s="10"/>
+      <c r="AE105" s="10"/>
+      <c r="AF105" s="10"/>
+      <c r="AG105" s="10"/>
+      <c r="AH105" s="10"/>
+      <c r="AI105" s="10"/>
+      <c r="AJ105" s="10"/>
+      <c r="AK105" s="10"/>
+      <c r="AL105" s="10"/>
+      <c r="AM105" s="10"/>
+      <c r="AN105" s="10"/>
+      <c r="AO105" s="10"/>
+      <c r="AP105" s="10"/>
+      <c r="AQ105" s="10"/>
+      <c r="AR105" s="10"/>
+      <c r="AS105" s="10"/>
+      <c r="AT105" s="10"/>
+      <c r="AU105" s="10"/>
+      <c r="AV105" s="10"/>
+      <c r="AW105" s="10"/>
+      <c r="AX105" s="10"/>
+      <c r="AY105" s="10"/>
+      <c r="AZ105" s="10"/>
+      <c r="BA105" s="10"/>
+      <c r="BB105" s="10"/>
+      <c r="BC105" s="10"/>
+      <c r="BD105" s="10"/>
+      <c r="BE105" s="10"/>
+      <c r="BF105" s="10"/>
+      <c r="BG105" s="10"/>
+      <c r="BH105" s="10"/>
+      <c r="BI105" s="10"/>
+      <c r="BJ105" s="10"/>
+      <c r="BK105" s="10"/>
+      <c r="BL105" s="10"/>
+      <c r="BM105" s="10"/>
+      <c r="BN105" s="10"/>
+      <c r="BO105" s="10"/>
+      <c r="BP105" s="10"/>
+      <c r="BQ105" s="10"/>
+      <c r="BR105" s="10"/>
+      <c r="BS105" s="10"/>
+      <c r="BT105" s="10"/>
+      <c r="BU105" s="10"/>
+      <c r="BV105" s="10"/>
+      <c r="BW105" s="10"/>
+      <c r="BX105" s="10"/>
+      <c r="BY105" s="10"/>
+      <c r="BZ105" s="24"/>
+      <c r="CA105" s="10"/>
+      <c r="CB105" s="11"/>
+    </row>
+    <row r="106" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+      <c r="B106" s="9"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="10"/>
+      <c r="P106" s="10"/>
+      <c r="Q106" s="10"/>
+      <c r="R106" s="10"/>
+      <c r="S106" s="10"/>
+      <c r="T106" s="10"/>
+      <c r="U106" s="10"/>
+      <c r="V106" s="10"/>
+      <c r="W106" s="10"/>
+      <c r="X106" s="10"/>
+      <c r="Y106" s="10"/>
+      <c r="Z106" s="10"/>
+      <c r="AA106" s="10"/>
+      <c r="AB106" s="10"/>
+      <c r="AC106" s="10"/>
+      <c r="AD106" s="10"/>
+      <c r="AE106" s="10"/>
+      <c r="AF106" s="10"/>
+      <c r="AG106" s="10"/>
+      <c r="AH106" s="10"/>
+      <c r="AI106" s="10"/>
+      <c r="AJ106" s="10"/>
+      <c r="AK106" s="10"/>
+      <c r="AL106" s="10"/>
+      <c r="AM106" s="10"/>
+      <c r="AN106" s="10"/>
+      <c r="AO106" s="10"/>
+      <c r="AP106" s="10"/>
+      <c r="AQ106" s="10"/>
+      <c r="AR106" s="10"/>
+      <c r="AS106" s="10"/>
+      <c r="AT106" s="10"/>
+      <c r="AU106" s="10"/>
+      <c r="AV106" s="10"/>
+      <c r="AW106" s="10"/>
+      <c r="AX106" s="10"/>
+      <c r="AY106" s="10"/>
+      <c r="AZ106" s="10"/>
+      <c r="BA106" s="10"/>
+      <c r="BB106" s="10"/>
+      <c r="BC106" s="10"/>
+      <c r="BD106" s="10"/>
+      <c r="BE106" s="10"/>
+      <c r="BF106" s="10"/>
+      <c r="BG106" s="10"/>
+      <c r="BH106" s="10"/>
+      <c r="BI106" s="10"/>
+      <c r="BJ106" s="10"/>
+      <c r="BK106" s="10"/>
+      <c r="BL106" s="10"/>
+      <c r="BM106" s="10"/>
+      <c r="BN106" s="10"/>
+      <c r="BO106" s="10"/>
+      <c r="BP106" s="10"/>
+      <c r="BQ106" s="10"/>
+      <c r="BR106" s="10"/>
+      <c r="BS106" s="10"/>
+      <c r="BT106" s="10"/>
+      <c r="BU106" s="10"/>
+      <c r="BV106" s="10"/>
+      <c r="BW106" s="10"/>
+      <c r="BX106" s="10"/>
+      <c r="BY106" s="10"/>
+      <c r="BZ106" s="10"/>
+      <c r="CA106" s="24"/>
+      <c r="CB106" s="11"/>
+    </row>
+    <row r="107" spans="1:80" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="13"/>
+      <c r="P107" s="13"/>
+      <c r="Q107" s="13"/>
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13"/>
+      <c r="U107" s="13"/>
+      <c r="V107" s="13"/>
+      <c r="W107" s="13"/>
+      <c r="X107" s="13"/>
+      <c r="Y107" s="13"/>
+      <c r="Z107" s="13"/>
+      <c r="AA107" s="13"/>
+      <c r="AB107" s="13"/>
+      <c r="AC107" s="13"/>
+      <c r="AD107" s="13"/>
+      <c r="AE107" s="13"/>
+      <c r="AF107" s="13"/>
+      <c r="AG107" s="13"/>
+      <c r="AH107" s="13"/>
+      <c r="AI107" s="13"/>
+      <c r="AJ107" s="13"/>
+      <c r="AK107" s="13"/>
+      <c r="AL107" s="13"/>
+      <c r="AM107" s="13"/>
+      <c r="AN107" s="13"/>
+      <c r="AO107" s="13"/>
+      <c r="AP107" s="13"/>
+      <c r="AQ107" s="13"/>
+      <c r="AR107" s="13"/>
+      <c r="AS107" s="13"/>
+      <c r="AT107" s="13"/>
+      <c r="AU107" s="13"/>
+      <c r="AV107" s="13"/>
+      <c r="AW107" s="13"/>
+      <c r="AX107" s="13"/>
+      <c r="AY107" s="13"/>
+      <c r="AZ107" s="13"/>
+      <c r="BA107" s="13"/>
+      <c r="BB107" s="13"/>
+      <c r="BC107" s="13"/>
+      <c r="BD107" s="13"/>
+      <c r="BE107" s="13"/>
+      <c r="BF107" s="13"/>
+      <c r="BG107" s="13"/>
+      <c r="BH107" s="13"/>
+      <c r="BI107" s="13"/>
+      <c r="BJ107" s="13"/>
+      <c r="BK107" s="13"/>
+      <c r="BL107" s="13"/>
+      <c r="BM107" s="13"/>
+      <c r="BN107" s="13"/>
+      <c r="BO107" s="13"/>
+      <c r="BP107" s="13"/>
+      <c r="BQ107" s="13"/>
+      <c r="BR107" s="13"/>
+      <c r="BS107" s="13"/>
+      <c r="BT107" s="13"/>
+      <c r="BU107" s="13"/>
+      <c r="BV107" s="13"/>
+      <c r="BW107" s="13"/>
+      <c r="BX107" s="13"/>
+      <c r="BY107" s="13"/>
+      <c r="BZ107" s="13"/>
+      <c r="CA107" s="13"/>
+      <c r="CB107" s="26"/>
+    </row>
+    <row r="108" spans="1:80" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10929,7 +11853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB8F3C7-C864-4127-94F5-E457C6309D3D}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -10947,1402 +11871,1402 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="38"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="38"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="38"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="38"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="38"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="38"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="38"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="38"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="38"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="38"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="38"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="38"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="38"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="38"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="38"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="38"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="38"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>110</v>
       </c>
       <c r="B23" s="23"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="38"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="32" t="s">
         <v>214</v>
       </c>
       <c r="B24" s="23"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="38"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="38"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="32" t="s">
         <v>112</v>
       </c>
       <c r="B26" s="23"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="38"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="38"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="32"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="24"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="38"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="37"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="24"/>
-      <c r="F29" s="38"/>
+      <c r="F29" s="37"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="18"/>
       <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="B31" s="37"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="32"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="38"/>
+      <c r="F31" s="37"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="37"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="28"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="38"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="37"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="38"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="37"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="38"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="37"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="38"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="37"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="38"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="37"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="38"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="37"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="38"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="37"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="38"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="37"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="38"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="37"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="38"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="37"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="38"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="37"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="38"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="37"/>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="32"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="24"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="38"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="37"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="38"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="37"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="38"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="37"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="38"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="37"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="38"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="37"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="38"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="37"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="38"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="37"/>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="38"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="37"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="37"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="38"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="37"/>
     </row>
     <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="38"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="37"/>
     </row>
     <row r="55" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="38"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="37"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="38"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="37"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="38"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="37"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="37"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="38"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="37"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="38"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="37"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="38"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="37"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="38"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="37"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="37"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="38"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="37"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="B63" s="37"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="38"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="37"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="38"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="37"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B65" s="37"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="38"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="37"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="B66" s="37"/>
-      <c r="C66" s="32"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="31"/>
       <c r="D66" s="24"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="38"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="37"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="33" t="s">
+      <c r="A67" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="38"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="37"/>
     </row>
     <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="B68" s="37"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="38"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="37"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B69" s="37"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="38"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="37"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B70" s="37"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="38"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="37"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="B71" s="37"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="38"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="37"/>
     </row>
     <row r="72" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="B72" s="37"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="24"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="38"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="37"/>
     </row>
     <row r="73" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="33" t="s">
+      <c r="A73" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="37"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="38"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="37"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B74" s="37"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="38"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="37"/>
     </row>
     <row r="75" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="33" t="s">
+      <c r="A75" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B75" s="37"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="38"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="37"/>
     </row>
     <row r="76" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="33" t="s">
+      <c r="A76" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B76" s="37"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="38"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="37"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="B77" s="37"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="38"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="37"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="B78" s="37"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="38"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="37"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="B79" s="37"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="38"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="37"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="B80" s="37"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="38"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="37"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="33" t="s">
+      <c r="A81" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="B81" s="37"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="38"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="37"/>
     </row>
     <row r="82" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="33" t="s">
+      <c r="A82" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="37"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="38"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="37"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="33" t="s">
+      <c r="A83" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="37"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="38"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="37"/>
     </row>
     <row r="84" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="33" t="s">
+      <c r="A84" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="B84" s="37"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
       <c r="F84" s="28"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B85" s="37"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="38"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="37"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B86" s="37"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
       <c r="F86" s="28"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="33" t="s">
+      <c r="A87" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B87" s="37"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="38"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="37"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="33" t="s">
+      <c r="A88" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="B88" s="37"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
       <c r="F88" s="28"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="33" t="s">
+      <c r="A89" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="B89" s="37"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="38"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="37"/>
     </row>
     <row r="90" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="33" t="s">
+      <c r="A90" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="B90" s="37"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
       <c r="E90" s="24"/>
-      <c r="F90" s="38"/>
+      <c r="F90" s="37"/>
     </row>
     <row r="91" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
       <c r="E91" s="24"/>
-      <c r="F91" s="38"/>
+      <c r="F91" s="37"/>
     </row>
     <row r="92" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="B92" s="37"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="38"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="37"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="B93" s="37"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="38"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="37"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="B94" s="37"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="38"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="37"/>
     </row>
     <row r="95" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="33" t="s">
+      <c r="A95" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B95" s="37"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
       <c r="E95" s="24"/>
-      <c r="F95" s="38"/>
+      <c r="F95" s="37"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="33" t="s">
+      <c r="A96" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B96" s="37"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
       <c r="E96" s="24"/>
-      <c r="F96" s="38"/>
+      <c r="F96" s="37"/>
     </row>
     <row r="97" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="33" t="s">
+      <c r="A97" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B97" s="37"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="38"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="37"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="33" t="s">
+      <c r="A98" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="B98" s="37"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="38"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="37"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="33" t="s">
+      <c r="A99" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="B99" s="37"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="38"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="37"/>
     </row>
     <row r="100" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="33" t="s">
+      <c r="A100" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B100" s="37"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
       <c r="F100" s="28"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="33" t="s">
+      <c r="A101" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="37"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="38"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="37"/>
     </row>
     <row r="102" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="33" t="s">
+      <c r="A102" s="32" t="s">
         <v>177</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="24"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="38"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="37"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="33" t="s">
+      <c r="A103" s="32" t="s">
         <v>178</v>
       </c>
       <c r="B103" s="23"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="38"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="37"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="33" t="s">
+      <c r="A104" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="B104" s="37"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="38"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="37"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="33" t="s">
+      <c r="A105" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="B105" s="37"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="38"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="37"/>
     </row>
     <row r="106" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="33" t="s">
+      <c r="A106" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="B106" s="37"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="38"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="37"/>
     </row>
     <row r="107" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="33" t="s">
+      <c r="A107" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="B107" s="37"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="38"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="37"/>
     </row>
     <row r="108" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="33" t="s">
+      <c r="A108" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="B108" s="37"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="38"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="37"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="33" t="s">
+      <c r="A109" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="B109" s="37"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="38"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="37"/>
     </row>
     <row r="110" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="33" t="s">
+      <c r="A110" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="B110" s="37"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="38"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="37"/>
     </row>
     <row r="111" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="33" t="s">
+      <c r="A111" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="B111" s="37"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="32"/>
-      <c r="E111" s="32"/>
-      <c r="F111" s="38"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="37"/>
     </row>
     <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="33" t="s">
+      <c r="A112" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="B112" s="37"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="38"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="37"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="33" t="s">
+      <c r="A113" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="B113" s="37"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="38"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="37"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="33" t="s">
+      <c r="A114" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="B114" s="37"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="38"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="37"/>
     </row>
     <row r="115" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="33" t="s">
+      <c r="A115" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="B115" s="37"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="38"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="37"/>
     </row>
     <row r="116" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="33" t="s">
+      <c r="A116" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="B116" s="37"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="38"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="37"/>
     </row>
     <row r="117" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="33" t="s">
+      <c r="A117" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="B117" s="37"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="32"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
       <c r="E117" s="24"/>
-      <c r="F117" s="38"/>
+      <c r="F117" s="37"/>
     </row>
     <row r="118" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="B118" s="37"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="32"/>
-      <c r="E118" s="32"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
       <c r="F118" s="28"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="33" t="s">
+      <c r="A119" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="B119" s="37"/>
+      <c r="B119" s="36"/>
       <c r="C119" s="24"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="38"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="37"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="33" t="s">
+      <c r="A120" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="B120" s="37"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="38"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="37"/>
     </row>
     <row r="121" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="33" t="s">
+      <c r="A121" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="B121" s="37"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="38"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="37"/>
     </row>
     <row r="122" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="33" t="s">
+      <c r="A122" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="B122" s="37"/>
+      <c r="B122" s="36"/>
       <c r="C122" s="24"/>
       <c r="D122" s="24"/>
       <c r="E122" s="24"/>
       <c r="F122" s="28"/>
     </row>
     <row r="123" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="33" t="s">
+      <c r="A123" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="B123" s="37"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="32"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="38"/>
+      <c r="B123" s="36"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="37"/>
     </row>
     <row r="124" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="33" t="s">
+      <c r="A124" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="B124" s="37"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="32"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="38"/>
+      <c r="B124" s="36"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="37"/>
     </row>
     <row r="125" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="33" t="s">
+      <c r="A125" s="32" t="s">
         <v>215</v>
       </c>
       <c r="B125" s="23"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="32"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="38"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="37"/>
     </row>
     <row r="126" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="33" t="s">
+      <c r="A126" s="32" t="s">
         <v>200</v>
       </c>
       <c r="B126" s="23"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="38"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="37"/>
     </row>
     <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="33" t="s">
+      <c r="A127" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="B127" s="37"/>
-      <c r="C127" s="32"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="31"/>
       <c r="D127" s="24"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="38"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="37"/>
     </row>
     <row r="128" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="33" t="s">
+      <c r="A128" s="32" t="s">
         <v>201</v>
       </c>
       <c r="B128" s="23"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="38"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="37"/>
     </row>
     <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="33" t="s">
+      <c r="A129" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="B129" s="37"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="32"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="38"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="37"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="33" t="s">
+      <c r="A130" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="B130" s="37"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="38"/>
+      <c r="B130" s="36"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="37"/>
     </row>
     <row r="131" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="33" t="s">
+      <c r="A131" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="B131" s="37"/>
-      <c r="C131" s="32"/>
+      <c r="B131" s="36"/>
+      <c r="C131" s="31"/>
       <c r="D131" s="24"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="38"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="37"/>
     </row>
     <row r="132" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="33" t="s">
+      <c r="A132" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="B132" s="37"/>
-      <c r="C132" s="32"/>
-      <c r="D132" s="32"/>
-      <c r="E132" s="32"/>
-      <c r="F132" s="38"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="37"/>
     </row>
     <row r="133" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="33" t="s">
+      <c r="A133" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="B133" s="37"/>
-      <c r="C133" s="32"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="38"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="37"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="33" t="s">
+      <c r="A134" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="B134" s="37"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="38"/>
+      <c r="B134" s="36"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="37"/>
     </row>
     <row r="135" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="33" t="s">
+      <c r="A135" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="B135" s="37"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="32"/>
-      <c r="F135" s="38"/>
+      <c r="B135" s="36"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="37"/>
     </row>
     <row r="136" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="33" t="s">
+      <c r="A136" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="B136" s="37"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="32"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="38"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="37"/>
     </row>
     <row r="137" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="33" t="s">
+      <c r="A137" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="B137" s="37"/>
-      <c r="C137" s="32"/>
-      <c r="D137" s="32"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="38"/>
+      <c r="B137" s="36"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="37"/>
     </row>
     <row r="138" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="33" t="s">
+      <c r="A138" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="B138" s="37"/>
-      <c r="C138" s="32"/>
-      <c r="D138" s="32"/>
-      <c r="E138" s="32"/>
-      <c r="F138" s="38"/>
+      <c r="B138" s="36"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="37"/>
     </row>
     <row r="139" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="33" t="s">
+      <c r="A139" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="B139" s="39"/>
-      <c r="C139" s="40"/>
-      <c r="D139" s="40"/>
-      <c r="E139" s="40"/>
-      <c r="F139" s="41"/>
+      <c r="B139" s="38"/>
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="39"/>
+      <c r="F139" s="40"/>
     </row>
     <row r="140" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
